--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841840_sqrt.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841840_sqrt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15192" windowHeight="10668" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -101,400 +101,406 @@
     <t>_1236_12</t>
   </si>
   <si>
-    <t>[ 2  0  1  9  3 26 24 20  7 27 18 23  6 15 14 16  8 11 13 17 12  5 19 10
-  4 22 25 21]</t>
-  </si>
-  <si>
-    <t>[ 2  0  9  1  3 28 26 30 40  7 20 48 45 24 52  6 27 43 36 35 13  8 55 11
- 29 14 15 31 23 12 44 19 37 16 33 51  4 18 46 41 17 39 34  5 32 10 50 42
- 38 47 54 22 53 25 49 21]</t>
-  </si>
-  <si>
-    <t>[ 2  0  9  1  3 28 26 30 55 40 20  7 79 36 27 29 61  8 45 83 73  6 23 35
- 63 80 11 58 13 76 56 66 59 72 64 60 57 14 39 15  5 43 31 24 37 71 41 77
-  4 33 17 12 51 48 69 38 32 19 65 46 62 34 16 18 10 52 50 78 44 68 82 47
- 42 74 22 54 70 49 67 53 75 21 81 25]</t>
-  </si>
-  <si>
-    <t>[24  2 27 23  0  1 15 12  9 17 20  8 16 13  7 18 14  3  6  4 19 11  5 26
- 22 25 10 21]</t>
-  </si>
-  <si>
-    <t>[51  2  0 27 55 52 29 12  1  9 23 15 35 30 33  8 24 45 17  7 43 20 13 32
- 41 44 38 16 18 36 48 49  3 54 31 11 28  5  6 14 40  4 37 46 34 19 50 26
- 10 42 22 47 39 21 25 53]</t>
-  </si>
-  <si>
-    <t>[ 2 51  0 83 27 79 55  1 69 62 29 12 64 30 60 67 35 15 80 52 20 57 24 58
- 33  7  9 61 23 32 17 72  8 13 43 41 77  6 36 63 73  3 11 45 76 48  5 65
- 49 71 31 18 59 38 78 56 16 28 44 37 19 14 10 82 74 68 66  4 26 70 54 34
- 22 46 75 50 21 40 39 25 47 81 42 53]</t>
-  </si>
-  <si>
-    <t>[23 24 27  1 15 13  7  2 20 16 17  5 10 21 18  4  8 12  3 26 14  0  9  6
- 22 19 11 25]</t>
-  </si>
-  <si>
-    <t>[23 51 55 24 27  1 41 34 36 52 39  2 29 15 32  7 30 13  4 49 17  5 20 33
- 45 43  0 37 44 31 28 10  8 16 35 21 50 48  3 26 18 46 12 38  6  9 22 54
- 40 42 11 47 19 14 53 25]</t>
-  </si>
-  <si>
-    <t>[23 51 83 67 55 79 27  1 24 36 57  2 59 34 80  7 58 29 64 32 63 41 15 62
- 17  5 30 78 39 13 60 20 43 10 77 33  4 68 52 65 49 16 45  8 35 56 44 76
- 31  3 37 28 21 70  0 12 74 73 71 66 61 26  9 18 40 75 50 38 22 69 48  6
- 11 72 42 54 19 46 82 47 14 81 53 25]</t>
-  </si>
-  <si>
-    <t>[23 27 24 13  6  8  1  2  4 16 21 11 15 17  5 20 22  3  7  9 10  0 14 12
- 26 18 19 25]</t>
-  </si>
-  <si>
-    <t>[23 51 55 27 39 52 24  6 29  8 31 36 30  1  4 35 13  2 17  5 15 34 49 50
- 16 11 32 40  7  9  3 37  0 45 21 28 43 20 46 33 48 42 10 44 38 41 22 12
- 26 54 18 47 14 19 25 53]</t>
-  </si>
-  <si>
-    <t>[58 23 27 55 39 51  1  8 31 29 36 80 59 13  6  2  4 57 17 79 24 35 52 77
- 15 30 34 16 68  5 32 11 78 67 62 50 83 40 49 71 64 65 21 73  7 66 37 56
- 61  9 63 74 60 43 76  3 33 20  0 44 28 38 41 46 45 10 18 70 42 22 72 48
- 26 12 69 54 19 14 47 75 82 81 53 25]</t>
-  </si>
-  <si>
-    <t>[23 27 11 24  1  8  7  2  3  6 22 21  4 20 15  9 17 16 12 18  5  0 14 13
- 26 10 19 25]</t>
-  </si>
-  <si>
-    <t>[30 23 27 11 52 51  1  3  8  7 24 31 29  2 49 55 22 40  6  4 50 39 36 12
- 43 45 28 34 48 17 38  9 21 33 16 35 15 20  5 37 32  0 13 42 46 18 44 10
- 41 47 19 14 26 54 53 25]</t>
-  </si>
-  <si>
-    <t>[30 27 23 83 11 79 52  3  1 80  8 24 51 58  7 60 56  2 29  4 31 40  6 77
- 55 70 36 57 12 78 62 22 21 67 73 69 38 39 49 34 17 71 63 59 74 64 68  9
- 28 33  5 65 50 32 48 37 43 35 45 76 61 16 18  0 15 14 20 72 44 82 46 66
- 13 10 42 19 41 26 75 53 25 47 54 81]</t>
-  </si>
-  <si>
-    <t>[24  2 23 12  1  3 11 21 27 22 20  6 17  7  8 15  0 14  5  9 18 10  4 16
+    <t>[ 2  0  9  1  3 26 20 24 27  7 15  6 13 11 16 14 18  8 17 23 12  5 19  4
+ 10 25 22 21]</t>
+  </si>
+  <si>
+    <t>[ 2  0  9  1  3 28 26 30 40 20  7 24 45 27  6 29 55 36 43  8 48 13 11 35
+ 37 44 31 15 23 16 12 41 52 14 17  5 32 46 39 18 34 33  4 19 42 50 10 38
+ 51 47 49 54 21 22 25 53]</t>
+  </si>
+  <si>
+    <t>[ 2  0  9  1  3 28 26 40 20 30 55 79  7 27 36  6 29 48  8 43 35 76 63 83
+ 61 57 15 11 14 73 58 59 56 13 23 24 64 45  5 18 69 72 66 31 39 12 33 41
+ 71 60 44 77 17 37  4 52 10 32 65 82 62 46 34 42 47 19 68 16 38 80 78 50
+ 51 74 22 70 54 67 81 75 49 21 53 25]</t>
+  </si>
+  <si>
+    <t>[ 2 24 27 23  0  1 15 12  8 17 20  9 16  7 18 13 14 19  6  3 11  5  4 26
+ 25 22 10 21]</t>
+  </si>
+  <si>
+    <t>[ 2 51  0 27 55 52 29  1 24 12 30 32 15  9 35  8 33  7 23 18 13 45 44 41
+ 16 43 17 20 36 38 48  6 54 31  3 28 11 49 19  4 34 37  5 40 14 10 46 50
+ 26 42 25 22 21 47 53 39]</t>
+  </si>
+  <si>
+    <t>[ 2 51  0 83 79 55 27 69 29 62 64 12 60 57  1 35 30  9 67 15 61 33 20 52
+  7 77  8 24 13 72 63 43 76 45 36 58 73 18 28 65 80  6 16 48 32 54 41 17
+  3 31 59 38 71  4 56 23 11 78 10  5 44 37 19 49 26 82 14 70 66 40 46 22
+ 34 68 21 74 39 47 75 42 50 53 25 81]</t>
+  </si>
+  <si>
+    <t>[23 24 27 15  1  2 13  7 17  5 20 16 10  4 21  8 26 18 12  0  3  9 22 14
+ 19  6 11 25]</t>
+  </si>
+  <si>
+    <t>[23 51 55 27 24 41  1  2 36 34 15 29 39 32  7 52 49 13 20 33 30  4 17 43
+  5 16 10 44 45 37 48  8 31 35 21  3  0 28 50 26 38 42  6  9 40 18 54 12
+ 22 11 46 14 47 19 25 53]</t>
+  </si>
+  <si>
+    <t>[23 55 83 51 67 79  1 27 59 36  7  2 32 29 34 41 64 24 57 15 63 33 80 62
+ 58 20 17 13 77 60 52 78 39  5 30  4  0 10 45  8 68 43 76 16 65 35 44 37
+ 49  3 28 26 61 56 74 31 48 21 70 73 18 82 54 66  9 50 12 71  6 72 38 69
+ 11 46 14 40 42 22 75 19 47 25 53 81]</t>
+  </si>
+  <si>
+    <t>[23 27 24 13  6 15  1  8  4 21 16 11  2 17  5 20 22  9  3  7  0 26 14 10
+ 12 19 18 25]</t>
+  </si>
+  <si>
+    <t>[23 27 51 55 39 29 24 31  8 52  1  6 35 17 36 13  4 30  2 34 15 50 49  5
+ 16 32 11  9 40  7 21 37 28 43 45 33 48 46 18  0 44  3 38 20 22 10 42 41
+ 26 12 54 14 19 47 53 25]</t>
+  </si>
+  <si>
+    <t>[58 55 23 27 51 39  8 29 31 80 79 36 13  6  1 59 57  4 17 30 52  2 24 35
+ 68 83 49 77 34 11  5 32 15 16 78 67 50 62 20 56 64 37 73 63 40 71  3 66
+ 65 21 61 76  7  0  9 74 33 22 43 38 18 44 45 28 60 12 69 46 41 10 70 42
+ 48 72 54 26 82 14 75 47 25 19 81 53]</t>
+  </si>
+  <si>
+    <t>[23 27 24 11  1  3  8  7 22  2  6 21  4 20 17 15 12  9 16  0 18  5 13 14
+ 19 10 26 25]</t>
+  </si>
+  <si>
+    <t>[30 23 27 11 52 24  1  3 51  8  7 31 29  6 40 49  4 22 50 12 55 36  2 39
+ 34 21 17 45  9 20 48 33 46 43 28 15 38 37 35  0 32 16  5 18 42 26 10 14
+ 13 44 19 47 54 53 41 25]</t>
+  </si>
+  <si>
+    <t>[30 23 27 79 11 83 52 80  3 51  1 58 24  8 56  7 60  4 29  6 40 77 39 31
+ 55 70  2 71 57 12 49 62 69 22 78 36 17 73 74 67 38 59 64 34 33 21 68 35
+ 65 16 63  9 20 28 13 45 15  0 50 48  5 18 66 37 32 10 61 43 76 82 46 14
+ 42 72 19 44 26 75 41 54 47 53 81 25]</t>
+  </si>
+  <si>
+    <t>[24  2 23 12  3 21 27 11 22 17  6 20  7 15  8  1 14 10  0  5  4  9 18 16
  13 19 25 26]</t>
   </si>
   <si>
-    <t>[ 2 51 55 24 52 23 30 32  1  3 12 42 27 39 49 11  7 34  8 28 29 21 41 45
- 20  6 40 43 50 17 35 22  5 31 10 36  0 37 48  4 46  9 15 38 54 18 44 16
- 14 33 13 19 47 53 25 26]</t>
-  </si>
-  <si>
-    <t>[79  2 80 24 55 51 52 30 59 32 23 12  3 63 66  1 70 28 39 34 49  8 68 83
- 69 11 27 64 40 29 35 17 65 60 21 45 77 62 42  6 10 41 15 31  4 58 78 22
-  7 36 43 37  5  0 38 20 50 46 56  9 82 57 16 18 74 73 33 76 67 13 48 72
- 54 71 19 44 81 14 75 61 25 26 53 47]</t>
-  </si>
-  <si>
-    <t>[24 23 13  2  9 20  1  0 27 16 12  7  3 11 26 17  8 22  6 10  5 14 18  4
- 25 15 19 21]</t>
-  </si>
-  <si>
-    <t>[  2   0   9   1   3  28  30  26  86  40  55  96  79   7  87  20  29  45
- 105  83  35  95  36  73  43 104   6  66 106  15  61 102 101  90  48  56
-  63  92  72  57  88  59  60  27  64   8  71  91  23  13  24  14  76  32
-  37  11  58  85  93  31   4  18  69  84   5  41  89  94  99  17  12  10
-  77  39  44  16 107  46  33  42 108  34  62  97  68  50  80  51  38  19
-  52  47  65 111  98 109  22  82 100  67 110 103  21  70  78  25  74  54
-  49  75  53  81]</t>
-  </si>
-  <si>
-    <t>[  2   0   1   9  28   3 123 115  92  26 142  30  20  40 120  97  88  90
- 143   7  43  79 161 107   8 152  61  83 119 135  29  36  63 151   6  35
-  95  37  73 116  45 111  56 141  12  91 134 157  66  57  86 146 148  55
-  17 139  41   5  31  33  89  59 155  64  72  11 124   4 114  32 160  14
- 158  71  15  18  85  13 112  48  84  34  58 162 138 140  46 147 150  16
-  69 133  10 145 108 132  87 149 106  60 126  44  27 100 101  38  39  93
-  24 118 164  76  94 136 144  65 121  82  50  96  23 105  42 153 122 117
-  62 154  19 125 129 113 130  99 104 166 156  49  80  22  47  68  98 167
- 131  52  54  67  25 159  74  77  53 165  78 110  21 127  51 109 103  75
- 137  81 128 102  70 163]</t>
-  </si>
-  <si>
-    <t>[114   2 112   0   9 121   1 113  86  28 140   3 115  30  96  79  26  87
-  61 138 152 142  40  20  95 132 104 105 167  57  63 106  73 119  66  59
-  99  90  60 101 102  92  72 139   7  24  83  55  91  56 118  71  64  85
-  88   6 120   8  84  45  94 148  89  65 147 155  43 108  76 157  69  29
- 111 141  93  27 129  68  36  77  98  35  51 127  12 136 153  58 135 126
-  11 124 145  62 151 160 143   5 163  14 116 162  13 107 158 125  33  34
-  39  23 149  44 109  15  18  97 100  80 130  78  31  42  37 150 110 156
-   4 146 164 122  32  50  74  48  17  19 123  41  10 117  38 154  16  67
- 128 103 144  70  46  52 131 134  82 166  54  22 133  47  25  81  53  75
- 165 161 159  49  21 137]</t>
-  </si>
-  <si>
-    <t>[1.5455207 1.233856  4.8812776 0.7882943 0.1484547 0.1853203 0.2808212
- 0.408713  0.2578507 1.2154243 0.1630775 0.2534521 0.2106011 0.236995
- 0.263946  0.2791682 0.2627792 0.236897  0.2963159 0.1754643 0.5365606
- 0.0813374 0.1165818 0.2838521 0.57579   0.1159135 0.6257416 0.3477221]</t>
-  </si>
-  <si>
-    <t>[2.9371019 1.5561209 9.4275934 1.1927652 0.2030711 0.1854235 0.3808344
- 0.5293788 0.3320649 2.2556441 0.181764  0.2864465 0.2641354 0.3338484
- 0.2784163 0.2690362 0.2184569 0.1923654 0.2025232 0.2314093 0.5067849
- 0.06986   0.1061083 0.2670945 0.423063  0.0934798 0.8760313 0.3736552
- 0.9800717 0.2794854 0.7559118 0.2677157 0.1832232 0.2099237 0.190072
- 0.3490131 0.3564545 0.2250194 0.1608228 0.1911191 0.7417951 0.1936348
- 0.1705314 0.3618594 0.2336622 0.4316781 0.1975544 0.1398986 0.4423883
- 0.0808731 0.1740986 0.2095673 0.3992023 0.0966292 0.1101346 0.2907719]</t>
-  </si>
-  <si>
-    <t>[ 3.6712793  2.6035074 11.7950394  1.5791115  0.2329941  0.2555159
-  0.3701671  0.6225946  0.3949165  2.9073681  0.1753545  0.3390835
-  0.2246203  0.3262567  0.2680845  0.2587429  0.1864972  0.225512
-  0.182767   0.2010561  0.6913475  0.0763729  0.1277897  0.3683929
-  0.2444522  0.0721977  1.2145163  0.4014479  1.5764764  0.3959491
-  1.2110083  0.2485136  0.201405   0.2308352  0.190036   0.3597268
-  0.4615968  0.2424189  0.2092345  0.2652218  0.8217141  0.2335491
-  0.1457933  0.2548494  0.1635775  0.3800509  0.1945541  0.1470105
-  0.2195903  0.097301   0.1739131  0.2209011  0.1740932  0.0846023
-  0.1113293  0.9600243  0.3164306  0.2736206  0.3315058  0.3086956
-  0.2740245  0.3959165  0.1928042  0.3597213  0.2942383  0.2009149
-  0.3152169  0.0961904  0.1508014  0.2095487  0.1069318  0.2419328
-  0.3044919  0.3755929  0.1404052  0.0771455  0.3167729  0.2333222
-  0.1646165  0.5853992  0.3499662  0.0738329  0.1482172  0.3760493]</t>
-  </si>
-  <si>
-    <t>[0.9331063 0.7224612 1.6255829 0.2708184 0.2382983 0.209416  0.2647044
- 0.3449188 0.4294817 0.5048034 0.1580813 0.2196251 0.5296781 0.3465556
- 0.3011342 0.5617509 0.3638509 0.4976741 0.3289819 0.2314709 0.4536444
- 0.1371101 0.1591525 1.1508216 1.7950207 0.1588865 0.1625392 1.1655842]</t>
-  </si>
-  <si>
-    <t>[1.9260686 0.7274165 2.3790625 0.3037281 0.2316952 0.2516716 0.2474165
- 0.4358243 0.4906783 0.6348006 0.1617759 0.2697164 0.7808135 0.3864236
- 0.2423983 0.6234799 0.3398694 0.4387965 0.3380826 0.2069313 0.3961625
- 0.1060681 0.1465835 0.6305665 0.4773493 0.097767  0.1677463 1.4895296
- 0.26924   0.9422307 0.5570459 0.2942443 0.3846377 0.5304262 0.2082734
- 0.600104  0.3271397 0.2280656 0.3469154 0.1182488 0.2379718 0.3539419
- 0.158242  0.4237551 0.3529831 0.4454221 0.2183795 0.1198616 0.3230182
- 0.3079774 0.1822641 3.1913529 1.1264101 0.072981  0.2962062 1.2634398]</t>
-  </si>
-  <si>
-    <t>[2.2983032 1.2949674 2.7951974 0.3084326 0.1719242 0.2757853 0.3250822
- 0.4718844 0.3933862 0.4668507 0.1919387 0.2968928 0.9678732 0.384706
- 0.1924875 0.6362909 0.2431294 0.4035022 0.2557881 0.209693  0.5805017
- 0.1346939 0.1577308 0.4279911 0.5285322 0.0991565 0.1704904 1.9261027
- 0.2380754 1.0318908 0.8985409 0.2640451 0.4065237 0.4772825 0.1641497
- 0.6870664 0.3231785 0.2158707 0.2519767 0.1102851 0.1343122 0.3524107
- 0.0825821 0.3576754 0.2277086 0.294453  0.1487723 0.0902045 0.2856457
- 0.2668187 0.1370225 2.7731848 0.6231161 0.0702345 0.166625  1.4128536
- 0.2441299 0.567813  0.5101053 0.2547697 0.7652801 0.4433773 1.0450829
- 0.3217948 0.9046568 0.2738418 0.1735761 0.7021444 0.1751705 1.1187335
- 0.1690886 0.2645024 0.4001388 0.3200886 0.181445  0.1397582 0.291644
- 0.3303883 0.2463468 1.603573  0.6233519 0.086829  0.1824653 1.9331419]</t>
-  </si>
-  <si>
-    <t>[0.2027048 0.7169686 0.4763006 0.2163716 0.3051077 0.3896138 0.1784781
- 0.4969335 0.2718476 0.2007803 0.3295254 0.1635727 0.259208  0.5163802
- 0.203002  0.7025173 0.4074003 0.3911657 0.3104092 0.1654098 0.4347902
- 0.3164949 0.1765362 2.2745662 1.7809235 0.1450842 0.2158    1.1014751]</t>
-  </si>
-  <si>
-    <t>[0.3454277 1.1545246 0.7362329 0.2461551 0.500369  0.4367448 0.1965673
- 0.6165335 0.2905488 0.1837346 0.2962071 0.1424098 0.2215024 0.5648347
- 0.107754  0.6582316 0.2898907 0.4651413 0.2297336 0.1082149 0.4058007
- 0.2670097 0.1791188 2.4834314 1.2739541 0.0808739 0.2303689 1.16373
- 0.2967552 0.6937173 0.5863258 0.3103169 0.6383472 0.3665266 0.8650034
- 0.2714426 0.8346795 0.3286267 0.2015872 0.7466767 0.1603004 1.1416829
- 0.1454623 0.351362  0.3219285 0.3662058 0.2220865 0.1374627 0.2516736
- 0.4689176 0.2568463 2.2713463 0.7485076 0.0861571 0.1741574 2.0273232]</t>
-  </si>
-  <si>
-    <t>[0.2077028 1.378779  0.9559461 0.234061  0.3227037 0.4646906 0.1316746
- 0.76934   0.2657894 0.184777  0.3335827 0.1290765 0.204661  0.4052026
- 0.0784455 0.6094236 0.2763343 0.4968397 0.1733605 0.1128099 0.3394873
- 0.21371   0.147588  3.1895173 1.0544722 0.0636305 0.1860963 1.4041732
- 0.2262239 0.7400476 0.423627  0.2446417 0.6979912 0.3295929 0.8221804
- 0.2578595 1.0514107 0.2314343 0.1483225 0.4158837 0.1641177 0.617504
- 0.1184423 0.3338811 0.2470373 0.2684947 0.1113406 0.0868093 0.1341104
- 0.2809851 0.1488206 2.336872  0.3103578 0.0671157 0.1131832 1.7153994
- 0.2526286 1.0000566 0.7485396 0.8285755 0.3466885 0.1871867 0.5108169
- 0.6326408 0.712548  0.3076107 0.1889505 1.7949314 0.3187936 0.1403721
- 0.2117252 0.196425  0.1277946 0.2013032 0.2017104 0.1566045 0.2453656
- 0.3306975 0.4161049 1.5192009 0.8171894 0.0752086 0.1016636 2.0753038]</t>
-  </si>
-  <si>
-    <t>[0.1845786 0.5101216 0.4995304 0.2144735 0.4823704 0.3047461 0.6124922
- 0.2134025 0.5543233 0.2133335 0.1884085 0.4202346 0.1799328 0.7709859
- 0.1825881 0.4137449 0.4783874 0.3096081 0.166592  0.125342  0.2802464
- 0.4443982 0.2373705 3.1587038 0.9983729 0.1087841 0.173582  1.6387886]</t>
-  </si>
-  <si>
-    <t>[0.2766    0.7405892 0.5727308 0.2844091 0.7133659 0.4964591 0.8503747
- 0.2980682 0.8358763 0.297079  0.2013508 0.4228306 0.1664588 0.6970333
- 0.1271652 0.4929425 0.4453697 0.5256639 0.149473  0.1176617 0.2208245
- 0.2488194 0.1838593 3.1272083 0.9221447 0.0916249 0.1638552 2.3684858
- 0.234463  0.8409012 0.745209  0.8060043 0.3674964 0.207567  0.4871115
- 0.7048128 0.7896665 0.2768125 0.1945884 1.6681653 0.3562901 0.1914717
- 0.2026441 0.2223112 0.197265  0.2669388 0.2168234 0.1438317 0.2046759
- 0.4691724 0.4494547 2.5399024 0.9548457 0.0906641 0.1554325 2.42639  ]</t>
-  </si>
-  <si>
-    <t>[0.169219  0.9114447 0.5928353 0.1740462 0.5749695 0.3653478 0.6265788
- 0.2315512 0.8572799 0.2171166 0.1426352 0.3095053 0.1107784 0.6546442
- 0.0965422 0.4075816 0.3908005 0.543265  0.1306395 0.1000904 0.1697579
- 0.2323897 0.1189382 2.5221944 0.4948082 0.0549624 0.1177092 2.4083699
- 0.1632497 0.8084971 0.4055733 0.8171026 0.3177193 0.1726451 0.3980542
- 0.4855488 0.6989596 0.2292627 0.1494929 1.3996377 0.248306  0.1471127
- 0.1203384 0.1893842 0.1666217 0.1427781 0.1462449 0.0926422 0.1177186
- 0.2463733 0.2720746 1.2449379 0.4742705 0.0598565 0.1022303 2.1639009
- 0.2269459 0.5718184 3.3900212 0.6571734 0.1922736 0.2184471 0.2766687
- 0.2065972 0.2379257 0.2362899 0.2298501 0.2968526 0.3758746 0.1043094
- 0.1286301 0.2395894 0.1183184 0.2317159 0.2022277 0.0876549 0.187062
- 0.4459794 0.3047498 0.5319156 0.6598363 0.083189  0.0864768 0.2609129]</t>
-  </si>
-  <si>
-    <t>[0.1953552 0.8054693 0.4967486 0.481425  0.3379885 0.2150041 0.4288175
- 0.510804  0.6066553 0.2897953 0.1593955 1.0806066 0.2674701 0.1668224
- 0.1752875 0.3043245 0.2692571 0.2803778 0.2151274 0.1467837 0.3283524
- 0.3473887 0.3990716 2.9183001 1.0717316 0.1052465 0.1604963 1.7771965]</t>
-  </si>
-  <si>
-    <t>[0.202303  0.8746949 0.5023207 0.7874414 0.4163638 0.2282595 0.4582384
- 0.6224306 0.6837969 0.2659425 0.1660869 1.6014038 0.3481975 0.1933518
- 0.1380627 0.2441765 0.2611246 0.2838944 0.176319  0.141831  0.2335984
- 0.264778  0.4735019 2.902526  0.5635685 0.0837235 0.1125911 2.3871557
- 0.3070865 0.5410605 3.5400907 0.5594738 0.2123615 0.2647521 0.3021142
- 0.2566789 0.3518032 0.2248312 0.2808299 0.3738577 0.4633289 0.1522978
- 0.1921178 0.3162224 0.1723888 0.3107577 0.1854216 0.1453093 0.2993211
- 0.487636  0.3886968 0.9954019 1.452363  0.1016766 0.1086703 0.4837778]</t>
-  </si>
-  <si>
-    <t>[0.2301728 1.1969138 0.6984863 1.2989883 0.6639563 0.2841238 0.6196319
- 0.8538436 1.014611  0.3176527 0.1613918 2.3284437 0.4948471 0.167896
- 0.2207002 0.2265126 0.2381572 0.3833259 0.2363784 0.1508887 0.2155717
- 0.4133888 0.4195748 2.7404997 0.9963019 0.0919825 0.1149358 2.9274589
- 0.3029987 0.6772854 5.8471289 0.6573073 0.2768515 0.2997839 0.3867566
- 0.254192  0.5169274 0.2649336 0.392832  0.3905308 0.6344552 0.1207687
- 0.1570616 0.2597372 0.2005737 0.2481246 0.1869743 0.0911393 0.2681647
- 0.3879956 0.282645  0.9872639 1.5493859 0.0998287 0.0876831 0.6036624
- 0.705178  0.5143393 0.8552207 0.3726472 0.7362921 0.2392574 0.4279369
- 0.3784107 0.3281779 0.2839928 0.1867691 0.412338  0.3215826 0.3956236
- 0.5983828 0.3818399 0.2034997 0.4102012 0.3384019 0.1115154 0.2428405
- 0.6161018 0.4390632 2.2841236 1.1957887 0.0686592 0.1870459 2.3778013]</t>
-  </si>
-  <si>
-    <t>[0.2613959 0.5363432 1.8905169 0.4895314 0.2209073 0.2444155 0.378395
- 0.3385907 0.332197  0.235334  0.2278767 0.4780503 0.6028522 0.1901909
- 0.2519252 0.3057579 0.2137588 0.3499577 0.2323644 0.1634752 0.4100947
- 0.4747633 0.4346739 1.7269027 2.4617443 0.1429292 0.1209061 0.4532997]</t>
-  </si>
-  <si>
-    <t>[0.2632285 0.6866081 3.4619472 0.6013308 0.2360752 0.3093731 0.3556187
- 0.4800387 0.4583712 0.2250203 0.3005317 0.4854272 0.5987644 0.1592164
- 0.1734243 0.2224798 0.1750189 0.3428329 0.1848834 0.1544122 0.3581243
- 0.3959286 0.3231393 1.1082512 1.7984584 0.0963701 0.0891507 0.5033309
- 0.4516067 0.4000447 0.9946942 0.3007493 0.6970432 0.1638942 0.4696843
- 0.332767  0.281374  0.2602331 0.2029018 0.5018591 0.3513215 0.3933342
- 0.59174   0.3494025 0.1750582 0.3586277 0.2355268 0.1374167 0.2470828
- 0.4917084 0.3471258 2.2612815 1.2624922 0.1152014 0.190742  1.9292498]</t>
-  </si>
-  <si>
-    <t>[0.236681  0.6334062 4.2581332 0.6912416 0.2974398 0.2552801 0.3238609
- 0.2746723 0.5038726 0.2035989 0.3231914 0.4181493 0.7145932 0.1503842
- 0.1245816 0.3162534 0.1991532 0.3814694 0.1921892 0.1306998 0.2309284
- 0.3558572 0.2863862 0.7353625 1.5902977 0.0923156 0.0921335 0.4021722
- 0.5430884 0.3915294 0.9726672 0.3023237 0.7845867 0.165587  0.5209709
- 0.3905046 0.265508  0.2560409 0.2356297 0.5355834 0.3986008 0.3184945
- 0.3317014 0.2561048 0.1292816 0.340445  0.2064763 0.0620531 0.1480008
- 0.514769  0.2168087 1.3364932 0.9786194 0.0779675 0.1443726 1.342222
- 0.2049991 0.2017078 0.2936562 0.88223   0.3570769 0.0987155 0.3332874
- 0.6746623 0.4009879 0.3601623 0.6398408 0.1557682 0.4775011 0.4196013
- 0.5964634 0.1383527 0.1472047 0.1749436 0.1833228 0.1206062 0.1635655
- 0.3390693 0.2908273 5.2908595 1.8271747 0.128481  0.2029868 0.4584062]</t>
-  </si>
-  <si>
-    <t>[0.5916216 0.6737014 0.8807332 0.3054073 0.1826636 0.1952107 0.2000703
- 0.3327644 0.2245792 0.7860902 0.1970505 0.2497665 0.4356207 1.0438447
- 0.1930851 0.1585838 0.4419278 0.2397982 0.1920284 0.1448722 0.7035649
- 0.1390391 0.2148377 1.8900711 2.8499153 0.1798415 0.2414627 0.458032 ]</t>
-  </si>
-  <si>
-    <t>[ 5.5421783  2.8593101 15.8163197  1.8365968  0.2399543  0.2353767
-  0.3985658  0.6176837  0.3127145  3.5500529  0.2182676  0.255057
-  0.2207684  0.2845414  0.2687479  0.3735811  0.1992051  0.2262259
-  0.237844   0.1542561  0.5797477  0.111086   0.1310671  0.2878758
-  0.2730925  0.0953589  1.0980625  0.3211217  1.4557852  0.4705711
-  1.1023244  0.2424854  0.26209    0.1894336  0.1783961  0.4472434
-  0.4203119  0.2610193  0.1602227  0.2032119  0.9260124  0.2325191
-  0.1868671  0.4079628  0.1993774  0.4602047  0.1902595  0.1429727
-  0.3662658  0.0769116  0.1672753  0.1614966  0.1531954  0.0682843
-  0.0814306  0.8696166  0.363825   0.3454486  0.2497416  0.327691
-  0.326718   0.3726699  0.1783741  0.353328   0.3133027  0.1420227
-  0.3807777  0.123428   0.1752613  0.2377226  0.1011916  0.3028476
-  0.3521368  0.4149062  0.0925902  0.0686746  0.2632245  0.2041181
-  0.1000606  0.6327119  0.1625257  0.0533055  0.1268952  0.4473688
-  0.2365483  0.2488381  1.0157042  0.5886977  0.3303085  0.2322047
-  0.3684648  0.2997481  0.3529966  0.2488115  0.2289188  0.4271664
-  0.6649687  0.1769094  0.1408859  0.2267085  0.1268917  0.3711094
-  0.3724251  0.1157285  0.4009621  0.4492622  0.3806203  0.1967635
-  0.1799717  0.139956   0.1179659  0.1412834]</t>
-  </si>
-  <si>
-    <t>[ 5.9477085  2.7723319 19.8019682  1.5143949  0.2075287  0.2198691
-  0.3469364  0.50585    0.4121379  2.5546539  0.1670978  0.2105705
-  0.2509867  0.191716   0.2039624  0.195878   0.1707347  0.2314469
-  0.1953492  0.1092563  0.9000862  0.0544995  0.0830631  0.1174149
-  0.1412159  0.0670402  1.0150105  0.1534356  1.7429727  0.3710772
-  1.0083489  0.2171819  0.2056107  0.2169908  0.1841635  0.3161874
-  0.3556659  0.3004128  0.1497743  0.142503   0.8572838  0.2217536
-  0.1165608  0.478576   0.1539037  0.2762635  0.1758379  0.0828746
-  0.1874392  0.0886441  0.1185144  0.049488   0.0704236  0.0635029
-  0.0699342  0.2321284  0.270512   0.2440181  0.1838171  0.2151985
-  0.1581116  0.4005983  0.1101473  0.3546774  0.2130682  0.1253211
-  0.2459022  0.0671077  0.0809444  0.1704223  0.038849   0.1969134
-  0.2115556  0.2948782  0.065062   0.0451118  0.1378349  0.0642471
-  0.0607639  0.474384   0.0873038  0.0445396  0.1193582  0.3839422
-  0.18584    0.195234   0.2433529  0.1658902  0.5580734  0.2158209
-  0.5447804  0.2494029  1.0360918  0.1419093  0.1359602  0.3055916
-  0.1182524  0.5594792  0.0757631  0.096387   0.1519251  0.1503654
-  0.0413643  0.04595    0.0956262  0.1167519  0.1618446  0.4385478
-  0.1667339  0.0481573  0.0581802  0.270774   0.1898761  0.100076
-  0.2066249  1.1024067  0.28844    0.1102122  0.1386685  0.3760531
-  0.6412336  0.1212248  0.1121357  1.4213291  0.2082068  0.1048394
-  0.1577887  0.0542217  0.0443497  0.1030737  0.0986204  0.0706628
-  0.1666516  0.1700621  0.2481919  0.3726357  0.1342246  0.0447352
-  0.1781467  0.2278947  0.1765343  0.2651177  1.0132025  0.5147515
-  0.1293731  0.1668174  0.2404616  0.172205   0.2374306  0.1651042
-  0.1711822  0.3493387  0.4067557  0.1123789  0.1093275  0.214187
-  0.090511   0.2475049  0.1990629  0.066867   0.2044078  0.4569479
-  0.1796529  0.0372423  0.1385326  0.0632499  0.0922307  0.0736622]</t>
-  </si>
-  <si>
-    <t>[ 3.9782344  2.3374228 11.5882463  1.3037714  0.1656387  0.2213378
-  0.3711947  0.4391596  0.3612132  2.7116185  0.1493917  0.2417454
-  0.2728488  0.2107544  0.2169003  0.1843385  0.1378737  0.1517155
-  0.1841819  0.1503006  0.6879907  0.0597563  0.0832822  0.1963452
-  0.4335091  0.0780142  0.9285241  0.2948854  1.6497458  0.2995067
-  1.0633568  0.1759865  0.1593886  0.2057956  0.1996484  0.284523
-  0.2877738  0.1725249  0.1442576  0.1994131  0.7427439  0.1498365
-  0.1726282  0.3137865  0.1921884  0.3401876  0.1269418  0.0810407
-  0.1527351  0.06017    0.1556964  0.2766185  0.121401   0.072255
-  0.085404   0.4123549  0.4073099  0.5732749  0.2540734  0.5085827
-  0.4822332  0.8478524  0.2306426  0.5670352  0.3922523  0.3211326
-  0.5091769  0.1362312  0.2889545  0.2999524  0.1290949  0.3927202
-  0.4542581  0.5512606  0.1540862  0.0695779  0.3084177  0.2873544
-  0.1765949  0.9680847  0.1787234  0.0772548  0.0920365  0.4173722
-  0.3480826  0.3774287  1.7363646  0.9172779  0.3715859  0.3289403
-  0.4945995  0.4108026  0.4641968  0.296955   0.3312577  0.6477121
-  1.0274526  0.1831557  0.2851781  0.5031939  0.1818827  0.4802196
-  0.472579   0.132366   0.59983    0.5919096  0.5519054  0.2085523
-  0.3122215  0.1917158  0.1693571  0.297974   4.3762843  2.190315
- 12.0008079  1.3018886  0.2145121  0.1493858  0.4069654  0.5094868
-  0.3686599  2.4499882  0.1629811  0.1499678  0.2415341  0.2063701
-  0.2490301  0.2752406  0.1323922  0.2895711  0.1770245  0.1199407
-  0.6076168  0.0814458  0.108021   0.2506637  0.2688827  0.059017
-  0.838626   0.4484639  1.3861763  0.2975471  0.7636221  0.2232414
-  0.1292945  0.2377291  0.1646732  0.319952   0.3301888  0.1957744
-  0.1716593  0.228877   0.7696059  0.2602364  0.1386465  0.3141775
-  0.1681357  0.3029619  0.2075126  0.0616059  0.2277612  0.062073
-  0.2138651  0.2200294  0.1639049  0.0624113  0.0864641  0.5860014]</t>
+    <t>[ 2 51 24 55 52 23 12 30 32  3 42  1 49 28 39  7 21 11 50 34  8 27  6 35
+ 41 22 17 45 10 40 29 43 20  5 31 46  0 36 48 37 38 15  9  4 44 14 18 54
+ 16 33 19 13 47 53 25 26]</t>
+  </si>
+  <si>
+    <t>[79  2 80 24 51 55 30 52 59 32 66  3 23 63  1 39 12 70 29 83 27 49  8 64
+ 68 34 28 11 21 69 41 42 65 17 22 60 43 40  6 78 20 77 35 58 10 50 45 15
+ 18 62  5  4 31 82 56 36 46 74  7 57 73  0 37  9 38 33 16 54 14 44 61 67
+ 71 72 19 48 81 76 75 13 26 25 53 47]</t>
+  </si>
+  <si>
+    <t>[24 23  2 13  9 20  0  1 27 16 12  7  3 26 11 10  8 17 14 18  4  5  6 22
+ 15 25 21 19]</t>
+  </si>
+  <si>
+    <t>[  2   0   1   9   3  86  28  30  40  26  20  55  96   7  29  87  61  79
+  45  27   8   6 105  95  63  48 104  90  36  43 106 102  59  18  35  23
+  88  71  92  33  99 101  57  73  72  41  64  11  14  15  91  66  31   5
+  12  13  60  17  84  56  37  89  80  98  83  85  94  93  69  10  32  44
+  46  65  76   4  39  34  77 108  24  58  51  19  16 111 107  62  50  38
+  82 103  49  97 110  68  78  42  74  47 100  67  70  22 109  52  54  53
+  81  75  21  25]</t>
+  </si>
+  <si>
+    <t>[  2   0   1   9  28   3 123 142  92  26 115  30  20  40  55  79 143  88
+ 107  90 120  45   7  97 111 119 116  61 135  36 152  29   8  89  18  43
+   6  35  63  56  83 161 124  73  66  13  27 151 139  85  57 157 158  33
+  71 146 148  37  95 101  41  59  10  58  31 155  48 162  60  91 140 144
+  39 149 133  12  72 145 141  34 134  82 147  64  76 150  87  44   5  93
+ 113  32 112  46  11   4  17 138  86  42 105 100 104 160  84  50 126  14
+ 129 118 106  38 153  94  65 125 121 128  15 122  69 132  19  62  78  96
+ 117 166  16 114 164  47 156  49  51 130  54  23 165 136 154  99 110  74
+  75 131  77 163  68  98  67 108  80 167 159  21  70  22  25 109  24 137
+ 127 102  53 103  81  52]</t>
+  </si>
+  <si>
+    <t>[114   2 112   0 113 121   1  86   9 115   3  30 140  26 142  96  87 167
+  40 152  83  28  61  88 105  73 138  55  20  66 102  95  63 119 132   7
+  57  59 139 104 101  56  92  58 120  29  90  64  60  99  94  91 106 155
+  76  89 148  43  69  71 160  35 147  15 124  12  36  85  37   8  93  62
+  82  72  79  45  27  77 130  68 118 108 141   6  84 157 117  14 135 153
+  17 145  48  78 143  33 129 127  98  44  18  24  65  80  41 123 107  67
+  97 125  31  11 156 128  13 146  34 126 149 100  46 131   5 150  39  16
+ 111 109  38 103 144  23 122   4  74 116  32  19 136  42 110 162  10  70
+ 154  22 166  47 158  51 151 134 159  54  75 133 163  52  49 161 137  53
+  50  25 164 165  21  81]</t>
+  </si>
+  <si>
+    <t>[1.8748849 1.3584437 5.9306665 0.884022  0.1830957 0.2280891 0.3626933
+ 0.4148342 0.2917841 1.4790878 0.1684575 0.3085286 0.2630403 0.3352997
+ 0.2942675 0.3805007 0.2953557 0.2877757 0.2932661 0.222139  0.5861401
+ 0.0886859 0.1417732 0.2863411 0.4454342 0.1439264 0.7243927 0.425039 ]</t>
+  </si>
+  <si>
+    <t>[3.3905452 2.1476369 9.149272  1.3714311 0.2090214 0.2439694 0.4324335
+ 0.5503235 0.3732007 2.3873227 0.1859794 0.3070392 0.2705027 0.3137978
+ 0.2538483 0.2911582 0.2705451 0.2503664 0.2145867 0.2046418 0.7079586
+ 0.1131502 0.1042718 0.2754806 0.4850005 0.092673  0.8376032 0.4651256
+ 1.1031273 0.4279308 0.7922583 0.2935011 0.237029  0.2107785 0.2121338
+ 0.3050046 0.3903224 0.3015299 0.1780718 0.2265853 0.7634372 0.2673652
+ 0.1986921 0.3864137 0.2980599 0.4759671 0.2290434 0.1477042 0.3560363
+ 0.1230837 0.1915575 0.1760323 0.2565476 0.0914453 0.11903   0.4010294]</t>
+  </si>
+  <si>
+    <t>[ 4.5316344  2.2326566 14.3685641  1.7632074  0.2305888  0.2894512
+  0.4564863  0.6143536  0.428946   2.8241286  0.2147608  0.3420278
+  0.2722945  0.3178752  0.3343815  0.3447365  0.1711284  0.2350372
+  0.2840878  0.1857604  0.9944204  0.0892205  0.1290631  0.3122179
+  0.2979158  0.0808309  1.2140292  0.5092577  1.5028405  0.4514996
+  0.8819869  0.2770694  0.2099471  0.2708976  0.197052   0.394005
+  0.4668362  0.2339928  0.1602539  0.2758749  1.0969123  0.2683085
+  0.1879047  0.4175647  0.2570048  0.2901788  0.1991594  0.1869297
+  0.4445856  0.0969638  0.138399   0.1298951  0.2279211  0.0861787
+  0.1115798  0.7368474  0.319847   0.3461768  0.3275771  0.3214252
+  0.2580965  0.3589578  0.2009408  0.3731796  0.2973446  0.205809
+  0.277463   0.1086829  0.1731503  0.2808892  0.1185517  0.2585104
+  0.2788571  0.3278369  0.1290776  0.1025624  0.3795079  0.2457164
+  0.1490315  0.6473077  0.1501667  0.106441   0.2035888  0.3644931]</t>
+  </si>
+  <si>
+    <t>[1.0333724 0.5980176 1.6445807 0.2285011 0.1792856 0.1926433 0.2427002
+ 0.3469825 0.4595761 0.3804208 0.1437509 0.2246643 0.5305298 0.326674
+ 0.2647421 0.5717663 0.3796052 0.4554134 0.3379675 0.2620751 0.4308994
+ 0.1258691 0.148683  1.1311531 1.5188994 0.1557062 0.1752248 1.3106674]</t>
+  </si>
+  <si>
+    <t>[1.8362435 0.9928892 2.710315  0.2696904 0.2386912 0.2294613 0.3019667
+ 0.4816971 0.4867956 0.5477271 0.2094432 0.2507334 0.8313641 0.4214994
+ 0.2153194 0.5638382 0.3835091 0.370083  0.4335747 0.2401131 0.3674875
+ 0.1247055 0.1252642 0.4375919 0.9186211 0.1336443 0.1455508 1.8119541
+ 0.2648152 1.0331139 0.6976049 0.2897025 0.570787  0.4837225 0.2362405
+ 0.5360612 0.3570209 0.2332195 0.3145004 0.1151359 0.2238266 0.3947047
+ 0.1452556 0.3788632 0.3965753 0.4036139 0.199224  0.1245479 0.31235
+ 0.2424931 0.1650057 2.1505479 1.0682174 0.1154714 0.3012656 1.2353436]</t>
+  </si>
+  <si>
+    <t>[2.4903265 0.6837973 2.9361041 0.2423608 0.2139766 0.1995663 0.2777025
+ 0.4234275 0.4096006 0.6213121 0.1999231 0.2036112 0.7702406 0.3741391
+ 0.1727657 0.5900157 0.2770306 0.2457698 0.2922006 0.1886757 0.5006201
+ 0.1315334 0.1429058 0.2080878 0.3892711 0.0728082 0.1843941 1.5999436
+ 0.2893049 0.9370548 0.6292434 0.2408105 0.2645107 0.5149723 0.142369
+ 0.6715342 0.3221991 0.1906915 0.2239385 0.1002994 0.1537495 0.2557682
+ 0.0841133 0.3355448 0.1995101 0.3313881 0.1476262 0.0866305 0.2708466
+ 0.1872315 0.0791748 2.6309413 0.4488409 0.0737846 0.2622855 1.6297545
+ 0.2082888 0.7003225 0.3074957 0.2325017 0.717223  0.5403969 0.8666615
+ 0.3387177 0.810827  0.2876685 0.15814   0.6128446 0.1383274 1.257097
+ 0.1705431 0.2228476 0.339402  0.2937416 0.1104292 0.085102  0.3350141
+ 0.4224079 0.2028083 1.6876281 0.2872231 0.0592503 0.1843064 1.9468414]</t>
+  </si>
+  <si>
+    <t>[0.2540627 0.6823552 0.6295601 0.2499382 0.3568    0.4586878 0.1890366
+ 0.5556491 0.3115083 0.2411915 0.4060849 0.1611297 0.257944  0.6094626
+ 0.2125825 0.8421443 0.4117754 0.5237593 0.2589229 0.2059924 0.4217429
+ 0.3508965 0.2264377 2.9016278 2.1824429 0.156684  0.2819811 1.1477341]</t>
+  </si>
+  <si>
+    <t>[0.2268888 0.882717  0.8530749 0.2341716 0.3884024 0.3498613 0.1878327
+ 0.6314589 0.2870507 0.1805114 0.3337142 0.1459877 0.1624344 0.4606366
+ 0.1340838 0.7115724 0.3410458 0.3697433 0.1676544 0.1103819 0.4500851
+ 0.2713753 0.1472351 2.8285783 1.1903099 0.10205   0.2085361 1.5688134
+ 0.2240372 0.6693707 0.4287315 0.2786691 0.635259  0.4442841 0.7689988
+ 0.273543  0.8140326 0.3016881 0.1987602 0.6366349 0.1759619 0.9943579
+ 0.1918261 0.3557969 0.3278641 0.3019266 0.1449962 0.1325729 0.3010502
+ 0.4844245 0.2087989 2.5722573 0.5815742 0.081434  0.1659378 1.8661264]</t>
+  </si>
+  <si>
+    <t>[0.4170064 1.6963628 0.9231956 0.2671251 0.423168  0.4403639 0.1698982
+ 0.9383409 0.3721296 0.1932199 0.4120743 0.1571388 0.1726508 0.5039816
+ 0.1398093 0.7129736 0.3173927 0.5385126 0.2036583 0.1063771 0.6078248
+ 0.2257784 0.1261032 3.5686994 0.8373282 0.0779513 0.2640251 1.5300254
+ 0.2651654 0.9002022 0.4363335 0.2461635 0.908881  0.6319746 0.8903974
+ 0.2879592 1.1356935 0.2784097 0.1637452 0.4429314 0.1339142 0.8756849
+ 0.1266751 0.3249084 0.2846281 0.4116153 0.1464644 0.0883481 0.2355348
+ 0.2679108 0.1734779 2.3965271 0.4651285 0.0763127 0.1972031 2.5379859
+ 0.2541668 0.8168426 0.6105722 1.2973452 0.4759782 0.2551624 0.6125618
+ 0.6737013 0.861053  0.2883676 0.1933078 1.9441974 0.3360408 0.1632016
+ 0.2178767 0.1721845 0.1666096 0.2103958 0.2500287 0.1126535 0.3201827
+ 0.4994757 0.4449232 1.9258583 0.6291757 0.0652732 0.1998867 2.5125811]</t>
+  </si>
+  <si>
+    <t>[0.2010799 0.570561  0.4061408 0.2356884 0.5132983 0.3265379 0.6208994
+ 0.2286854 0.5553144 0.2446862 0.1832769 0.4453679 0.1734672 0.7764763
+ 0.1863754 0.5737719 0.4576217 0.3597183 0.1475475 0.1634244 0.262402
+ 0.4769592 0.2582344 2.9467556 1.1912846 0.126961  0.1962306 1.9376481]</t>
+  </si>
+  <si>
+    <t>[0.1999069 0.811552  0.5077089 0.1920051 0.6201289 0.3983336 0.7621579
+ 0.2747018 0.8365886 0.3058123 0.1825877 0.3218988 0.1517122 0.632706
+ 0.1243636 0.4318999 0.392426  0.6537816 0.2015479 0.1238979 0.1890924
+ 0.2622793 0.1882444 2.584995  0.9395098 0.0783642 0.1539666 2.5313164
+ 0.2291472 0.9796185 0.5220977 0.851312  0.3246284 0.2077331 0.4971669
+ 0.6658483 0.6530564 0.2481576 0.1901799 1.5197672 0.3028894 0.1642024
+ 0.1806253 0.2286415 0.1932514 0.2269645 0.2041097 0.1224657 0.2066769
+ 0.4163565 0.4296688 2.2518717 0.8274216 0.0933912 0.1433582 1.8090195]</t>
+  </si>
+  <si>
+    <t>[0.2336    0.8151564 0.6941481 0.2815077 0.7745606 0.4158816 0.8296137
+ 0.2521422 1.1008571 0.2331229 0.1744394 0.4719691 0.1862941 0.8537183
+ 0.126873  0.4120426 0.3826932 0.7656335 0.2004149 0.0856385 0.3214297
+ 0.2742702 0.2119159 2.6037712 0.6737711 0.1084098 0.1411049 2.3524881
+ 0.194899  1.0999596 0.7270498 1.0490649 0.4133999 0.2164981 0.5112531
+ 0.6512231 0.9146593 0.3140002 0.2038396 1.5809571 0.2867236 0.181032
+ 0.1608562 0.20751   0.1975325 0.1961704 0.1826148 0.120875  0.1564836
+ 0.5634316 0.362188  2.3117659 0.7188671 0.0752161 0.1535654 3.4416087
+ 0.3213021 0.7750061 3.5272088 0.7846581 0.1948348 0.2666497 0.3350716
+ 0.2980439 0.3150163 0.275826  0.2773041 0.3790835 0.6017363 0.1829997
+ 0.1613193 0.2842874 0.1559599 0.3039747 0.2288038 0.1259801 0.2540243
+ 0.5335093 0.3819175 0.9345854 0.9717094 0.0807364 0.1289299 0.5882151]</t>
+  </si>
+  <si>
+    <t>[0.2304495 0.7989562 0.4467925 0.55526   0.3586666 0.2052965 0.419555
+ 0.5139231 0.5305624 0.2784419 0.162564  1.1116589 0.2967841 0.1901311
+ 0.1815976 0.302751  0.2729913 0.3228605 0.2294787 0.1640586 0.3307084
+ 0.3827892 0.4759903 3.1198946 1.3199741 0.1086604 0.1597559 1.5577489]</t>
+  </si>
+  <si>
+    <t>[0.2527737 1.0345058 0.3785971 1.0220431 0.474668  0.2085978 0.5275342
+ 0.768267  0.8043863 0.3016339 0.171258  1.8438744 0.4301129 0.1706766
+ 0.1709867 0.2725778 0.2358723 0.3106213 0.2040128 0.1374893 0.2915258
+ 0.3237742 0.4595311 3.1651976 1.0588736 0.0805009 0.1734554 2.8025923
+ 0.2745615 0.6127686 3.1962074 0.7308705 0.238186  0.2795134 0.3766549
+ 0.2550278 0.3978816 0.256271  0.2657908 0.3767879 0.5097263 0.1165393
+ 0.1803903 0.2765729 0.1583456 0.3079697 0.2790664 0.1343286 0.2808658
+ 0.4763235 0.4352537 0.8331625 1.7846531 0.1192852 0.1263256 0.4059103]</t>
+  </si>
+  <si>
+    <t>[0.2032546 0.8756961 0.41969   0.9214154 0.529107  0.1925483 0.511074
+ 0.6033353 0.6456403 0.2226641 0.1717066 1.8452205 0.3685321 0.2179302
+ 0.1289616 0.2136044 0.2446576 0.3226994 0.1886399 0.1157016 0.2204593
+ 0.2534844 0.3592024 2.5239681 0.7084879 0.0599232 0.0904334 2.3190805
+ 0.2199545 0.5222795 3.8664795 0.4419825 0.1803657 0.2551445 0.2564603
+ 0.2520686 0.3326452 0.1811306 0.2756933 0.4443894 0.5077384 0.0878742
+ 0.1261597 0.1648762 0.0955995 0.2158388 0.1480362 0.0753221 0.1962218
+ 0.3671009 0.1976708 0.8984532 1.2763234 0.0728614 0.0824005 0.4373514
+ 0.6096336 0.3791837 0.8213047 0.2728498 0.5616383 0.1669888 0.3624273
+ 0.2273927 0.265241  0.2475196 0.1836119 0.2760362 0.2522009 0.3593999
+ 0.4366122 0.3817503 0.121184  0.2841215 0.282477  0.0882694 0.1587758
+ 0.483628  0.3539911 2.1256424 0.9901569 0.0710056 0.1570713 1.7502003]</t>
+  </si>
+  <si>
+    <t>[0.2392377 0.2674485 1.9221254 0.5331989 0.2192645 0.2351995 0.3319785
+ 0.313971  0.2933507 0.2156838 0.246507  0.4285934 0.5947713 0.1534568
+ 0.2476318 0.3028557 0.1848249 0.3352436 0.1854243 0.1431937 0.3266593
+ 0.479514  0.4119759 1.553011  2.0403101 0.1169394 0.1143167 0.4351109]</t>
+  </si>
+  <si>
+    <t>[0.2477995 0.5819201 3.2608299 0.6249238 0.2042222 0.2768435 0.3858095
+ 0.5054706 0.4566691 0.2119446 0.3469416 0.4861028 0.7860007 0.1304916
+ 0.1980526 0.2130247 0.1652623 0.3472193 0.1850486 0.1390676 0.3001345
+ 0.5015232 0.3539087 1.1454827 2.1903695 0.0833919 0.0827872 0.4041837
+ 0.5211505 0.3206582 0.7285675 0.2760073 0.7185749 0.1626915 0.4807148
+ 0.3757031 0.2368501 0.2217632 0.2185778 0.5137111 0.3386883 0.3544156
+ 0.613716  0.3084934 0.2000538 0.3470068 0.272439  0.1250219 0.2350138
+ 0.5229305 0.482732  2.4186517 1.3722739 0.1147319 0.1771908 1.8475223]</t>
+  </si>
+  <si>
+    <t>[0.2138394 0.6982035 4.6315019 0.7583122 0.2605275 0.2645972 0.3511099
+ 0.2284838 0.4765303 0.199041  0.3261726 0.4440922 0.6843788 0.1133405
+ 0.1610105 0.3061091 0.1833976 0.3845414 0.2806862 0.1389395 0.3469183
+ 0.4297365 0.3824183 0.721951  1.4964851 0.0950657 0.0969457 0.5214413
+ 0.4573461 0.5445712 1.0826098 0.2459361 0.9465918 0.1851127 0.4656879
+ 0.3343152 0.2409877 0.2122703 0.1910314 0.6860534 0.353018  0.3974791
+ 0.3887775 0.3531922 0.1578506 0.3246481 0.2361905 0.0756213 0.133067
+ 0.5031721 0.3258741 1.4261294 1.0525339 0.0766147 0.1626945 1.3886712
+ 0.2415228 0.2272288 0.3296373 0.9663262 0.3693526 0.1540239 0.2767049
+ 0.7039764 0.4707239 0.3875049 0.8127802 0.1483681 0.4683332 0.4125509
+ 0.6276795 0.1470395 0.1395077 0.2147497 0.2286917 0.1228358 0.1245519
+ 0.3453049 0.3486492 4.9354301 1.5849439 0.1280472 0.2445903 0.5384673]</t>
+  </si>
+  <si>
+    <t>[0.7637974 0.7486319 1.1501398 0.3767075 0.2408862 0.2339418 0.2280861
+ 0.4533508 0.2859829 0.9592949 0.2886219 0.2906095 0.4843165 1.1237088
+ 0.2633321 0.2083101 0.601661  0.2785116 0.2435212 0.1745378 0.8381337
+ 0.1789252 0.2252115 2.1242455 3.1897805 0.1812618 0.302231  0.6544107]</t>
+  </si>
+  <si>
+    <t>[ 4.7131124  3.6172829 15.430493   1.4213999  0.186682   0.2528018
+  0.4120921  0.6121848  0.4213662  3.3023486  0.2091172  0.2620892
+  0.2523872  0.2518989  0.2618883  0.2605238  0.1580144  0.2475303
+  0.3295944  0.1639534  0.9087643  0.0601129  0.0995477  0.3176215
+  0.1695521  0.0563016  1.0295015  0.4306792  1.2620693  0.6072945
+  1.1614166  0.2540734  0.2054405  0.3061663  0.1808913  0.3180143
+  0.3558876  0.2412439  0.1482297  0.1865274  1.0746344  0.2654853
+  0.1175932  0.3464599  0.2019012  0.4359995  0.200519   0.1023132
+  0.3884831  0.1387717  0.1503939  0.1670785  0.0874039  0.0693473
+  0.0771498  0.8202909  0.2415996  0.2892231  0.1692112  0.3312866
+  0.2476056  0.4670249  0.1506774  0.3895016  0.2626522  0.1891895
+  0.2545952  0.1001806  0.1303632  0.2126807  0.0998432  0.3094064
+  0.2698528  0.27842    0.1140787  0.060222   0.188905   0.1792415
+  0.1282624  0.4512685  0.2372905  0.0615802  0.1474397  0.2211937
+  0.2448141  0.2174261  1.29268    0.5413846  0.3156413  0.2378849
+  0.367587   0.2571485  0.30858    0.2130051  0.2166857  0.407775
+  0.6751658  0.1356428  0.2287529  0.2971568  0.1013188  0.2893586
+  0.3356111  0.1471731  0.3857059  0.4113734  0.3442475  0.1535455
+  0.1736055  0.0951765  0.1308096  0.1564438]</t>
+  </si>
+  <si>
+    <t>[6.8684073e+00 3.7187664e+00 1.9605233e+01 1.5528313e+00 1.6986230e-01
+ 1.8830310e-01 3.7350470e-01 5.4992630e-01 3.8042020e-01 3.0373290e+00
+ 2.3343200e-01 1.7187060e-01 2.0277600e-01 2.9210290e-01 1.5470720e-01
+ 1.4255710e-01 1.1718410e-01 1.6835650e-01 3.7486620e-01 1.3085370e-01
+ 9.9928120e-01 6.4767400e-02 6.1719400e-02 9.9973900e-02 4.8406900e-02
+ 6.0564800e-02 1.2157923e+00 2.9137510e-01 2.1295659e+00 3.8177940e-01
+ 1.1800052e+00 2.2565200e-01 1.7665440e-01 2.5959560e-01 1.9742980e-01
+ 3.6267460e-01 3.8854300e-01 2.4006330e-01 1.5040730e-01 2.1024420e-01
+ 8.0677570e-01 2.3556200e-01 1.6598600e-01 3.7452350e-01 1.8838970e-01
+ 5.6332310e-01 1.7342340e-01 1.0930330e-01 2.2381670e-01 1.0615550e-01
+ 1.5777980e-01 1.0589770e-01 1.5718300e-02 3.7452400e-02 1.0363390e-01
+ 7.1797920e-01 3.3950220e-01 2.7092140e-01 2.2792290e-01 2.3400770e-01
+ 2.1469630e-01 3.9900330e-01 1.2342610e-01 3.4255180e-01 1.9318140e-01
+ 1.4488620e-01 3.0056420e-01 7.7248400e-02 7.8553400e-02 1.3853290e-01
+ 6.3073300e-02 2.5298070e-01 1.9997430e-01 3.1548900e-01 8.7402100e-02
+ 8.5774800e-02 1.8944540e-01 8.1518500e-02 1.2204140e-01 7.0227280e-01
+ 6.8722100e-02 3.6861200e-02 1.9490890e-01 3.3937330e-01 1.5856700e-01
+ 2.7281200e-01 1.6779690e-01 1.8843780e-01 6.0351960e-01 3.7775040e-01
+ 5.9553080e-01 2.1280920e-01 1.2357534e+00 1.8399370e-01 1.4494970e-01
+ 2.3974800e-01 1.2188200e-01 5.4522660e-01 7.8219400e-02 9.0281000e-02
+ 1.6287110e-01 2.3808950e-01 4.1118700e-02 3.7171100e-02 1.6274410e-01
+ 1.6414910e-01 1.5147590e-01 6.0191860e-01 7.2786800e-02 5.7274300e-02
+ 8.9728000e-02 4.9532210e-01 1.7354710e-01 1.7835420e-01 1.1673700e-01
+ 1.1938977e+00 4.4009810e-01 1.2138570e-01 1.5181160e-01 4.7469070e-01
+ 5.8193800e-01 1.4351850e-01 1.3931030e-01 1.5344867e+00 3.3449690e-01
+ 1.4379330e-01 1.5637260e-01 4.7081000e-02 1.4292210e-01 1.5187550e-01
+ 1.0531080e-01 8.3682800e-02 1.3153320e-01 2.0431600e-01 1.9641290e-01
+ 3.8952820e-01 9.5761800e-02 4.7242200e-02 1.6830730e-01 2.7988290e-01
+ 2.1261410e-01 1.9770130e-01 1.4734166e+00 6.5563040e-01 2.1090910e-01
+ 1.9923410e-01 2.5142960e-01 1.9466590e-01 2.4273610e-01 2.0764040e-01
+ 1.8939060e-01 2.8263750e-01 3.8643910e-01 1.4586160e-01 9.1956000e-02
+ 2.2445310e-01 1.0635400e-01 2.6874650e-01 2.6604730e-01 6.7871800e-02
+ 1.5917580e-01 3.3648680e-01 2.2260470e-01 7.8960500e-02 1.1556470e-01
+ 9.9045700e-02 1.1938990e-01 6.8395400e-02]</t>
+  </si>
+  <si>
+    <t>[ 3.2803677  2.3245612 12.1807076  1.1301413  0.1396242  0.159554
+  0.2413695  0.5067726  0.2907887  1.8626054  0.1155843  0.1761348
+  0.2976435  0.1737478  0.2301987  0.3040924  0.1507938  0.2240273
+  0.1967369  0.128716   0.5710663  0.0419524  0.1132989  0.1434064
+  0.196245   0.0531294  0.980559   0.2636601  0.708443   0.3846866
+  1.0665787  0.1783162  0.1297443  0.2059708  0.1663946  0.3072676
+  0.2944211  0.2908198  0.146745   0.1544542  0.8408718  0.1914563
+  0.1273329  0.3387063  0.1985294  0.2670031  0.1625301  0.1052147
+  0.2221259  0.0608983  0.0535686  0.0954619  0.0640229  0.056418
+  0.0817731  0.5802253  0.4115587  0.4783548  0.3999223  0.4771288
+  0.3563356  0.6742023  0.2722138  0.5614469  0.3630407  0.1932781
+  0.5663632  0.1824667  0.2613233  0.3374286  0.115582   0.3236637
+  0.2705614  0.6160776  0.1383107  0.072333   0.3512315  0.2634775
+  0.2159036  0.2698843  0.1917747  0.0390608  0.2717038  0.7203572
+  0.2393077  0.2935397  2.0349999  0.8869742  0.6441102  0.3488679
+  0.3820047  0.3530534  0.4114137  0.2876544  0.3544808  0.5640675
+  0.9058518  0.182392   0.1988966  0.3552317  0.1628878  0.4178645
+  0.5641865  0.1459007  0.4578308  0.6236529  0.3527823  0.1829899
+  0.2453263  0.1473076  0.1226937  0.1494021  3.4974479  2.913243
+ 13.4959779  1.2281293  0.1349669  0.2315942  0.2507923  0.5247952
+  0.3939047  2.337477   0.1432504  0.1864421  0.3018987  0.1819774
+  0.1658385  0.2032261  0.1740847  0.2034742  0.2621112  0.1609624
+  0.5103603  0.0687967  0.0844464  0.2298191  0.1281206  0.0572612
+  0.6091695  0.4689087  1.0150955  0.244001   0.9324242  0.2075166
+  0.145539   0.2221474  0.1713675  0.3061056  0.3462457  0.1642521
+  0.1593957  0.0916308  0.7955456  0.2294366  0.1148399  0.3525741
+  0.175026   0.2383232  0.0997345  0.0844123  0.3172183  0.0605692
+  0.117481   0.0666708  0.0528572  0.0449414  0.1075404  0.8852986]</t>
   </si>
   <si>
     <t>_1</t>
@@ -917,13 +923,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.59399999999999997</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="C2">
-        <v>0.58599999999999997</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D2">
-        <v>0.58899999999999997</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,13 +937,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.58799999999999997</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C3">
-        <v>0.58099999999999996</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D3">
-        <v>0.60099999999999998</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,13 +951,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.57799999999999996</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="C4">
-        <v>0.58499999999999996</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D4">
-        <v>0.60599999999999998</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,13 +965,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.59499999999999997</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C5">
-        <v>0.58799999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D5">
-        <v>0.61</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,13 +979,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.58199999999999996</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C6">
-        <v>0.59799999999999998</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D6">
-        <v>0.61</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.55800000000000005</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="C7">
-        <v>0.57299999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D7">
-        <v>0.58199999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,13 +1007,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.56100000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="C8">
-        <v>0.57199999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="D8">
-        <v>0.59499999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.56599999999999995</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="C9">
-        <v>0.57999999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D9">
-        <v>0.58799999999999997</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,13 +1035,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.57699999999999996</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="C10">
-        <v>0.57199999999999995</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D10">
-        <v>0.60099999999999998</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,13 +1049,13 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.56299999999999994</v>
+        <v>0.503</v>
       </c>
       <c r="C11">
-        <v>0.59099999999999997</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D11">
-        <v>0.57799999999999996</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,13 +1063,13 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0.56799999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="C12">
-        <v>0.55400000000000005</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D12">
-        <v>0.59799999999999998</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,13 +1077,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.56299999999999994</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C13">
-        <v>0.57599999999999996</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D13">
-        <v>0.59399999999999997</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,13 +1091,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.58299999999999996</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="C14">
-        <v>0.56299999999999994</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D14">
-        <v>0.59299999999999997</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,13 +1105,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.56200000000000006</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C15">
-        <v>0.55700000000000005</v>
+        <v>0.502</v>
       </c>
       <c r="D15">
-        <v>0.58699999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.55200000000000005</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C16">
-        <v>0.56399999999999995</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D16">
-        <v>0.58099999999999996</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.40899999999999997</v>
+        <v>0.37</v>
       </c>
       <c r="C17">
-        <v>0.41499999999999998</v>
+        <v>0.373</v>
       </c>
       <c r="D17">
-        <v>0.46500000000000002</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,13 +1147,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0.42699999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C18">
-        <v>0.41899999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="D18">
-        <v>0.45600000000000002</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,13 +1161,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.41299999999999998</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="C19">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="D19">
-        <v>0.47</v>
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,13 +1175,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="C20">
-        <v>0.40799999999999997</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D20">
-        <v>0.44900000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,13 +1189,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0.41199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C21">
-        <v>0.41499999999999998</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D21">
-        <v>0.46300000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>0.45600000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="C22">
-        <v>0.46899999999999997</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D22">
-        <v>0.48799999999999999</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.45500000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="C23">
-        <v>0.48</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D23">
-        <v>0.48099999999999998</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.46200000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="C24">
-        <v>0.48299999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D24">
-        <v>0.48</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.46100000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="C25">
-        <v>0.47499999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="D25">
-        <v>0.48599999999999999</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>0.45700000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="C26">
-        <v>0.47599999999999998</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D26">
-        <v>0.46400000000000002</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,13 +1273,13 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.51800000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C27">
-        <v>0.52700000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D27">
-        <v>0.53600000000000003</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,13 +1287,13 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>0.505</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="C28">
-        <v>0.50900000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D28">
-        <v>0.53500000000000003</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,13 +1301,13 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.51500000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="C29">
-        <v>0.504</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D29">
-        <v>0.52900000000000003</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,13 +1315,13 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.48799999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="C30">
-        <v>0.498</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D30">
-        <v>0.51200000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,13 +1329,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>0.505</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="C31">
-        <v>0.51900000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="D31">
-        <v>0.52600000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,13 +1343,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.496</v>
+        <v>0.45</v>
       </c>
       <c r="C32">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="D32">
-        <v>0.51</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>0.48599999999999999</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="C33">
-        <v>0.52400000000000002</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D33">
-        <v>0.51700000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,13 +1371,13 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.51900000000000002</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C34">
-        <v>0.52500000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D34">
-        <v>0.50900000000000001</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,13 +1385,13 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.47899999999999998</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C35">
-        <v>0.52900000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D35">
-        <v>0.50900000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,13 +1399,13 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>0.51500000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="C36">
-        <v>0.52600000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D36">
-        <v>0.50900000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>0.53800000000000003</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="C37">
-        <v>0.55900000000000005</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D37">
-        <v>0.58499999999999996</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1421,13 +1427,13 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.52400000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="C38">
-        <v>0.55900000000000005</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D38">
-        <v>0.57199999999999995</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,13 +1441,13 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.52600000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="C39">
-        <v>0.56599999999999995</v>
+        <v>0.501</v>
       </c>
       <c r="D39">
-        <v>0.57499999999999996</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,13 +1455,13 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>0.54400000000000004</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C40">
-        <v>0.55200000000000005</v>
+        <v>0.498</v>
       </c>
       <c r="D40">
-        <v>0.58099999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,13 +1469,13 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>0.54</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="C41">
-        <v>0.54</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D41">
-        <v>0.57699999999999996</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1477,13 +1483,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>0.52600000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C42">
-        <v>0.56799999999999995</v>
+        <v>0.48</v>
       </c>
       <c r="D42">
-        <v>0.58799999999999997</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,13 +1497,13 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>0.55400000000000005</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="C43">
-        <v>0.54800000000000004</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D43">
-        <v>0.59299999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,13 +1511,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.54900000000000004</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="C44">
-        <v>0.56200000000000006</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D44">
-        <v>0.59</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,13 +1525,13 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>0.55500000000000005</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="C45">
-        <v>0.53300000000000003</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D45">
-        <v>0.59899999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,13 +1539,13 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>0.55500000000000005</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="C46">
-        <v>0.54800000000000004</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D46">
-        <v>0.58799999999999997</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,13 +1553,13 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0.54400000000000004</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="C47">
-        <v>0.55100000000000005</v>
+        <v>0.497</v>
       </c>
       <c r="D47">
-        <v>0.61299999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,13 +1567,13 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>0.53800000000000003</v>
+        <v>0.495</v>
       </c>
       <c r="C48">
-        <v>0.57399999999999995</v>
+        <v>0.505</v>
       </c>
       <c r="D48">
-        <v>0.60299999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,13 +1581,13 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>0.52700000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C49">
-        <v>0.56699999999999995</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D49">
-        <v>0.6</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,13 +1595,13 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>0.52900000000000003</v>
+        <v>0.498</v>
       </c>
       <c r="C50">
-        <v>0.58399999999999996</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D50">
-        <v>0.61099999999999999</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,13 +1609,13 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>0.54200000000000004</v>
+        <v>0.498</v>
       </c>
       <c r="C51">
-        <v>0.56899999999999995</v>
+        <v>0.501</v>
       </c>
       <c r="D51">
-        <v>0.6</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1617,13 +1623,13 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.56699999999999995</v>
+        <v>0.498</v>
       </c>
       <c r="C52">
-        <v>0.55700000000000005</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D52">
-        <v>0.63600000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1631,13 +1637,13 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.54700000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="C53">
-        <v>0.55500000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D53">
-        <v>0.61</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,13 +1651,13 @@
         <v>14</v>
       </c>
       <c r="B54">
+        <v>0.502</v>
+      </c>
+      <c r="C54">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D54">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="C54">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="D54">
-        <v>0.629</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1659,13 +1665,13 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0.57499999999999996</v>
+        <v>0.504</v>
       </c>
       <c r="C55">
-        <v>0.53600000000000003</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D55">
-        <v>0.627</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,13 +1679,13 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>0.56000000000000005</v>
+        <v>0.504</v>
       </c>
       <c r="C56">
-        <v>0.57299999999999995</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D56">
-        <v>0.61399999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,13 +1693,13 @@
         <v>15</v>
       </c>
       <c r="B57">
-        <v>0.49299999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="C57">
-        <v>0.47899999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="D57">
-        <v>0.54200000000000004</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,13 +1707,13 @@
         <v>15</v>
       </c>
       <c r="B58">
-        <v>0.49099999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="C58">
-        <v>0.47499999999999998</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D58">
-        <v>0.51800000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,13 +1721,13 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>0.47699999999999998</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="C59">
-        <v>0.48199999999999998</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D59">
-        <v>0.57199999999999995</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,13 +1735,13 @@
         <v>15</v>
       </c>
       <c r="B60">
-        <v>0.46800000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="C60">
-        <v>0.497</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D60">
-        <v>0.52800000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,13 +1749,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>0.48799999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C61">
-        <v>0.48499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="D61">
-        <v>0.52400000000000002</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,13 +1763,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>0.53100000000000003</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="C62">
-        <v>0.56899999999999995</v>
+        <v>0.498</v>
       </c>
       <c r="D62">
-        <v>0.61799999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,13 +1777,13 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>0.53300000000000003</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="C63">
-        <v>0.56000000000000005</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D63">
-        <v>0.60499999999999998</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,13 +1791,13 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>0.53900000000000003</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="C64">
+        <v>0.49</v>
+      </c>
+      <c r="D64">
         <v>0.54900000000000004</v>
-      </c>
-      <c r="D64">
-        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1799,13 +1805,13 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <v>0.55300000000000005</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="C65">
-        <v>0.54400000000000004</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D65">
-        <v>0.59499999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,13 +1819,13 @@
         <v>16</v>
       </c>
       <c r="B66">
-        <v>0.54400000000000004</v>
+        <v>0.495</v>
       </c>
       <c r="C66">
-        <v>0.56100000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="D66">
-        <v>0.623</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1827,13 +1833,13 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>0.44500000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="C67">
-        <v>0.46100000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D67">
-        <v>0.46700000000000003</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1841,13 +1847,13 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>0.434</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="C68">
-        <v>0.45500000000000002</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D68">
-        <v>0.48699999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1855,13 +1861,13 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>0.45300000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="C69">
-        <v>0.47099999999999997</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D69">
-        <v>0.49099999999999999</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,13 +1875,13 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>0.48199999999999998</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="C70">
-        <v>0.47899999999999998</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D70">
-        <v>0.47</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,13 +1889,13 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>0.46500000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="C71">
-        <v>0.45300000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="D71">
-        <v>0.49199999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1897,13 +1903,13 @@
         <v>18</v>
       </c>
       <c r="B72">
-        <v>0.39100000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="C72">
-        <v>0.41099999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D72">
-        <v>0.443</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1911,13 +1917,13 @@
         <v>18</v>
       </c>
       <c r="B73">
-        <v>0.41099999999999998</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C73">
-        <v>0.39100000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D73">
-        <v>0.44700000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,13 +1931,13 @@
         <v>18</v>
       </c>
       <c r="B74">
-        <v>0.40500000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C74">
-        <v>0.39300000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D74">
-        <v>0.42699999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,13 +1945,13 @@
         <v>18</v>
       </c>
       <c r="B75">
-        <v>0.38800000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="C75">
-        <v>0.40799999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D75">
-        <v>0.41</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,13 +1959,13 @@
         <v>18</v>
       </c>
       <c r="B76">
-        <v>0.39200000000000002</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="C76">
-        <v>0.39900000000000002</v>
+        <v>0.377</v>
       </c>
       <c r="D76">
-        <v>0.44600000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1967,13 +1973,13 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>0.374</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="C77">
-        <v>0.36399999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D77">
-        <v>0.42499999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>0.4</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="C78">
-        <v>0.35599999999999998</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D78">
-        <v>0.42399999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1995,13 +2001,13 @@
         <v>19</v>
       </c>
       <c r="B79">
-        <v>0.38100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="C79">
-        <v>0.36299999999999999</v>
+        <v>0.312</v>
       </c>
       <c r="D79">
-        <v>0.436</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,13 +2015,13 @@
         <v>19</v>
       </c>
       <c r="B80">
-        <v>0.377</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="C80">
-        <v>0.36599999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D80">
-        <v>0.42399999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2023,13 +2029,13 @@
         <v>19</v>
       </c>
       <c r="B81">
-        <v>0.375</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="C81">
-        <v>0.36</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D81">
-        <v>0.42299999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,13 +2043,13 @@
         <v>20</v>
       </c>
       <c r="B82">
-        <v>0.32</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="C82">
-        <v>0.34300000000000003</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D82">
-        <v>0.375</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,13 +2057,13 @@
         <v>20</v>
       </c>
       <c r="B83">
-        <v>0.34599999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C83">
-        <v>0.35799999999999998</v>
+        <v>0.307</v>
       </c>
       <c r="D83">
-        <v>0.36099999999999999</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,13 +2071,13 @@
         <v>20</v>
       </c>
       <c r="B84">
-        <v>0.35299999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C84">
-        <v>0.35699999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D84">
-        <v>0.34699999999999998</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,13 +2085,13 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <v>0.36299999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="C85">
-        <v>0.33600000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D85">
-        <v>0.34899999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="B86">
-        <v>0.34200000000000003</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="C86">
-        <v>0.32900000000000001</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D86">
-        <v>0.36099999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2107,13 +2113,13 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>0.38700000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="C87">
-        <v>0.38</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D87">
-        <v>0.40300000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,13 +2127,13 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>0.39</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="C88">
-        <v>0.36899999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="D88">
-        <v>0.41299999999999998</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2135,13 +2141,13 @@
         <v>21</v>
       </c>
       <c r="B89">
-        <v>0.38400000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="C89">
-        <v>0.39300000000000002</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D89">
-        <v>0.40500000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2149,13 +2155,13 @@
         <v>21</v>
       </c>
       <c r="B90">
-        <v>0.38300000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C90">
-        <v>0.39900000000000002</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D90">
-        <v>0.38300000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,13 +2169,13 @@
         <v>21</v>
       </c>
       <c r="B91">
-        <v>0.38900000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C91">
-        <v>0.36099999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D91">
-        <v>0.4</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,13 +2183,13 @@
         <v>22</v>
       </c>
       <c r="B92">
-        <v>0.45300000000000001</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="C92">
-        <v>0.44500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="D92">
-        <v>0.46200000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2191,13 +2197,13 @@
         <v>22</v>
       </c>
       <c r="B93">
-        <v>0.44700000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C93">
-        <v>0.46600000000000003</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D93">
-        <v>0.46</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,13 +2211,13 @@
         <v>22</v>
       </c>
       <c r="B94">
-        <v>0.45100000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="C94">
-        <v>0.45600000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D94">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2219,13 +2225,13 @@
         <v>22</v>
       </c>
       <c r="B95">
-        <v>0.45900000000000002</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="C95">
-        <v>0.46400000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D95">
-        <v>0.45100000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,13 +2239,13 @@
         <v>22</v>
       </c>
       <c r="B96">
-        <v>0.44600000000000001</v>
+        <v>0.377</v>
       </c>
       <c r="C96">
-        <v>0.47199999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D96">
-        <v>0.45800000000000002</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2247,13 +2253,13 @@
         <v>23</v>
       </c>
       <c r="B97">
-        <v>0.55400000000000005</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C97">
-        <v>0.57299999999999995</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D97">
-        <v>0.58499999999999996</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,13 +2267,13 @@
         <v>23</v>
       </c>
       <c r="B98">
-        <v>0.55800000000000005</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C98">
-        <v>0.55900000000000005</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D98">
-        <v>0.58099999999999996</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2275,13 +2281,13 @@
         <v>23</v>
       </c>
       <c r="B99">
-        <v>0.57099999999999995</v>
+        <v>0.495</v>
       </c>
       <c r="C99">
-        <v>0.56799999999999995</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D99">
-        <v>0.57399999999999995</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2289,13 +2295,13 @@
         <v>23</v>
       </c>
       <c r="B100">
-        <v>0.56299999999999994</v>
+        <v>0.504</v>
       </c>
       <c r="C100">
-        <v>0.55800000000000005</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D100">
-        <v>0.57599999999999996</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2303,13 +2309,13 @@
         <v>23</v>
       </c>
       <c r="B101">
-        <v>0.56100000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="C101">
-        <v>0.56200000000000006</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D101">
-        <v>0.58399999999999996</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2317,13 +2323,13 @@
         <v>24</v>
       </c>
       <c r="B102">
-        <v>0.57299999999999995</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C102">
-        <v>0.59699999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D102">
-        <v>0.57699999999999996</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,13 +2337,13 @@
         <v>24</v>
       </c>
       <c r="B103">
-        <v>0.6</v>
+        <v>0.502</v>
       </c>
       <c r="C103">
-        <v>0.57999999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D103">
-        <v>0.59899999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2345,13 +2351,13 @@
         <v>24</v>
       </c>
       <c r="B104">
-        <v>0.59399999999999997</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C104">
-        <v>0.58799999999999997</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D104">
-        <v>0.58599999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2359,13 +2365,13 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>0.58699999999999997</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C105">
-        <v>0.57199999999999995</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D105">
-        <v>0.58299999999999996</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,13 +2379,13 @@
         <v>24</v>
       </c>
       <c r="B106">
-        <v>0.57999999999999996</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="C106">
-        <v>0.58099999999999996</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D106">
-        <v>0.58599999999999997</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,13 +2393,13 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>0.56899999999999995</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="C107">
-        <v>0.58499999999999996</v>
+        <v>0.505</v>
       </c>
       <c r="D107">
-        <v>0.58699999999999997</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2401,13 +2407,13 @@
         <v>25</v>
       </c>
       <c r="B108">
-        <v>0.57499999999999996</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="C108">
-        <v>0.54800000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="D108">
-        <v>0.59599999999999997</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,13 +2421,13 @@
         <v>25</v>
       </c>
       <c r="B109">
-        <v>0.56200000000000006</v>
+        <v>0.497</v>
       </c>
       <c r="C109">
-        <v>0.56000000000000005</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D109">
-        <v>0.57199999999999995</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2429,13 +2435,13 @@
         <v>25</v>
       </c>
       <c r="B110">
-        <v>0.57099999999999995</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C110">
-        <v>0.56699999999999995</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D110">
-        <v>0.56899999999999995</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2443,13 +2449,13 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>0.56599999999999995</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C111">
-        <v>0.56200000000000006</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D111">
-        <v>0.55400000000000005</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2684,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D331"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,7 +2718,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.59399999999999997</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -2726,7 +2732,7 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>0.58599999999999997</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -2740,7 +2746,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>0.58899999999999997</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -2754,7 +2760,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.58799999999999997</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2768,7 +2774,7 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>0.58099999999999996</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2782,7 +2788,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>0.60099999999999998</v>
+        <v>0.54</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -2796,7 +2802,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.57799999999999996</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -2810,7 +2816,7 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <v>0.58499999999999996</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -2824,7 +2830,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0.60599999999999998</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -2838,7 +2844,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>0.59499999999999997</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -2852,7 +2858,7 @@
         <v>75</v>
       </c>
       <c r="C12">
-        <v>0.58799999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -2866,7 +2872,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>0.61</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -2880,7 +2886,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>0.58199999999999996</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2894,7 +2900,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>0.59799999999999998</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -2908,7 +2914,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0.61</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -2922,7 +2928,7 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>0.55800000000000005</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -2936,7 +2942,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>0.57299999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -2950,7 +2956,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>0.58199999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2964,7 +2970,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>0.56100000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2978,7 +2984,7 @@
         <v>75</v>
       </c>
       <c r="C21">
-        <v>0.57199999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2992,7 +2998,7 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>0.59499999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -3006,7 +3012,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>0.56599999999999995</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -3020,7 +3026,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>0.57999999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -3034,7 +3040,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.58799999999999997</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -3048,7 +3054,7 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>0.57699999999999996</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -3062,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="C27">
-        <v>0.57199999999999995</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -3076,7 +3082,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.60099999999999998</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -3090,7 +3096,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>0.56299999999999994</v>
+        <v>0.503</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -3104,7 +3110,7 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>0.59099999999999997</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -3118,7 +3124,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.57799999999999996</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -3132,7 +3138,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.56799999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -3146,7 +3152,7 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>0.55400000000000005</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -3160,7 +3166,7 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>0.59799999999999998</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -3174,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>0.56299999999999994</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -3188,7 +3194,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>0.57599999999999996</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -3202,7 +3208,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>0.59399999999999997</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -3216,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>0.58299999999999996</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -3230,7 +3236,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0.56299999999999994</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -3244,7 +3250,7 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>0.59299999999999997</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -3258,7 +3264,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>0.56200000000000006</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -3272,7 +3278,7 @@
         <v>75</v>
       </c>
       <c r="C42">
-        <v>0.55700000000000005</v>
+        <v>0.502</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -3286,7 +3292,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.58699999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -3300,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>0.55200000000000005</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -3314,7 +3320,7 @@
         <v>75</v>
       </c>
       <c r="C45">
-        <v>0.56399999999999995</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
@@ -3328,7 +3334,7 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>0.58099999999999996</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -3342,7 +3348,7 @@
         <v>100</v>
       </c>
       <c r="C47">
-        <v>0.40899999999999997</v>
+        <v>0.37</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3356,7 +3362,7 @@
         <v>75</v>
       </c>
       <c r="C48">
-        <v>0.41499999999999998</v>
+        <v>0.373</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3370,7 +3376,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>0.46500000000000002</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -3384,7 +3390,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>0.42699999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -3398,7 +3404,7 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>0.41899999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -3412,7 +3418,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.45600000000000002</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -3426,7 +3432,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>0.41299999999999998</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
@@ -3440,7 +3446,7 @@
         <v>75</v>
       </c>
       <c r="C54">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3454,7 +3460,7 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>0.47</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3468,7 +3474,7 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>0.4</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -3482,7 +3488,7 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>0.40799999999999997</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -3496,7 +3502,7 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>0.44900000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
@@ -3510,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>0.41199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
@@ -3524,7 +3530,7 @@
         <v>75</v>
       </c>
       <c r="C60">
-        <v>0.41499999999999998</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
@@ -3538,7 +3544,7 @@
         <v>50</v>
       </c>
       <c r="C61">
-        <v>0.46300000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -3552,7 +3558,7 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>0.45600000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="D62" t="s">
         <v>80</v>
@@ -3566,7 +3572,7 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.46899999999999997</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
@@ -3580,7 +3586,7 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>0.48799999999999999</v>
+        <v>0.442</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -3594,7 +3600,7 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>0.45500000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -3608,7 +3614,7 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.48</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
@@ -3622,7 +3628,7 @@
         <v>50</v>
       </c>
       <c r="C67">
-        <v>0.48099999999999998</v>
+        <v>0.438</v>
       </c>
       <c r="D67" t="s">
         <v>80</v>
@@ -3636,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>0.46200000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -3650,7 +3656,7 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>0.48299999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -3664,7 +3670,7 @@
         <v>50</v>
       </c>
       <c r="C70">
-        <v>0.48</v>
+        <v>0.442</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
@@ -3678,7 +3684,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>0.46100000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
@@ -3692,7 +3698,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.47499999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
@@ -3706,7 +3712,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.48599999999999999</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -3720,7 +3726,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>0.45700000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D74" t="s">
         <v>80</v>
@@ -3734,7 +3740,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.47599999999999998</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -3748,7 +3754,7 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <v>0.46400000000000002</v>
+        <v>0.442</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
@@ -3762,7 +3768,7 @@
         <v>100</v>
       </c>
       <c r="C77">
-        <v>0.51800000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -3776,7 +3782,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <v>0.52700000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -3790,7 +3796,7 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <v>0.53600000000000003</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D79" t="s">
         <v>80</v>
@@ -3804,7 +3810,7 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>0.505</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D80" t="s">
         <v>80</v>
@@ -3818,7 +3824,7 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>0.50900000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
@@ -3832,7 +3838,7 @@
         <v>50</v>
       </c>
       <c r="C82">
-        <v>0.53500000000000003</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
@@ -3846,7 +3852,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>0.51500000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D83" t="s">
         <v>80</v>
@@ -3860,7 +3866,7 @@
         <v>75</v>
       </c>
       <c r="C84">
-        <v>0.504</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D84" t="s">
         <v>80</v>
@@ -3874,7 +3880,7 @@
         <v>50</v>
       </c>
       <c r="C85">
-        <v>0.52900000000000003</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D85" t="s">
         <v>80</v>
@@ -3888,7 +3894,7 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>0.48799999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="D86" t="s">
         <v>80</v>
@@ -3902,7 +3908,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>0.498</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D87" t="s">
         <v>80</v>
@@ -3916,7 +3922,7 @@
         <v>50</v>
       </c>
       <c r="C88">
-        <v>0.51200000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D88" t="s">
         <v>80</v>
@@ -3930,7 +3936,7 @@
         <v>100</v>
       </c>
       <c r="C89">
-        <v>0.505</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -3944,7 +3950,7 @@
         <v>75</v>
       </c>
       <c r="C90">
-        <v>0.51900000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="D90" t="s">
         <v>80</v>
@@ -3958,7 +3964,7 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>0.52600000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D91" t="s">
         <v>80</v>
@@ -3972,7 +3978,7 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>0.496</v>
+        <v>0.45</v>
       </c>
       <c r="D92" t="s">
         <v>80</v>
@@ -3986,7 +3992,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="D93" t="s">
         <v>80</v>
@@ -4000,7 +4006,7 @@
         <v>50</v>
       </c>
       <c r="C94">
-        <v>0.51</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>80</v>
@@ -4014,7 +4020,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.48599999999999999</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4028,7 +4034,7 @@
         <v>75</v>
       </c>
       <c r="C96">
-        <v>0.52400000000000002</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
@@ -4042,7 +4048,7 @@
         <v>50</v>
       </c>
       <c r="C97">
-        <v>0.51700000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -4056,7 +4062,7 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>0.51900000000000002</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D98" t="s">
         <v>80</v>
@@ -4070,7 +4076,7 @@
         <v>75</v>
       </c>
       <c r="C99">
-        <v>0.52500000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D99" t="s">
         <v>80</v>
@@ -4084,7 +4090,7 @@
         <v>50</v>
       </c>
       <c r="C100">
-        <v>0.50900000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="D100" t="s">
         <v>80</v>
@@ -4098,7 +4104,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.47899999999999998</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D101" t="s">
         <v>80</v>
@@ -4112,7 +4118,7 @@
         <v>75</v>
       </c>
       <c r="C102">
-        <v>0.52900000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D102" t="s">
         <v>80</v>
@@ -4126,7 +4132,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.50900000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D103" t="s">
         <v>80</v>
@@ -4140,7 +4146,7 @@
         <v>100</v>
       </c>
       <c r="C104">
-        <v>0.51500000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D104" t="s">
         <v>80</v>
@@ -4154,7 +4160,7 @@
         <v>75</v>
       </c>
       <c r="C105">
-        <v>0.52600000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
@@ -4168,7 +4174,7 @@
         <v>50</v>
       </c>
       <c r="C106">
-        <v>0.50900000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D106" t="s">
         <v>80</v>
@@ -4182,7 +4188,7 @@
         <v>100</v>
       </c>
       <c r="C107">
-        <v>0.53800000000000003</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D107" t="s">
         <v>80</v>
@@ -4196,7 +4202,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.55900000000000005</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -4210,7 +4216,7 @@
         <v>50</v>
       </c>
       <c r="C109">
-        <v>0.58499999999999996</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D109" t="s">
         <v>80</v>
@@ -4224,7 +4230,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>0.52400000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="D110" t="s">
         <v>80</v>
@@ -4238,7 +4244,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.55900000000000005</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D111" t="s">
         <v>80</v>
@@ -4252,7 +4258,7 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <v>0.57199999999999995</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D112" t="s">
         <v>80</v>
@@ -4266,7 +4272,7 @@
         <v>100</v>
       </c>
       <c r="C113">
-        <v>0.52600000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D113" t="s">
         <v>80</v>
@@ -4280,7 +4286,7 @@
         <v>75</v>
       </c>
       <c r="C114">
-        <v>0.56599999999999995</v>
+        <v>0.501</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -4294,7 +4300,7 @@
         <v>50</v>
       </c>
       <c r="C115">
-        <v>0.57499999999999996</v>
+        <v>0.52</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4308,7 +4314,7 @@
         <v>100</v>
       </c>
       <c r="C116">
-        <v>0.54400000000000004</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D116" t="s">
         <v>80</v>
@@ -4322,7 +4328,7 @@
         <v>75</v>
       </c>
       <c r="C117">
-        <v>0.55200000000000005</v>
+        <v>0.498</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -4336,7 +4342,7 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>0.58099999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -4350,7 +4356,7 @@
         <v>100</v>
       </c>
       <c r="C119">
-        <v>0.54</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -4364,7 +4370,7 @@
         <v>75</v>
       </c>
       <c r="C120">
-        <v>0.54</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -4378,7 +4384,7 @@
         <v>50</v>
       </c>
       <c r="C121">
-        <v>0.57699999999999996</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
@@ -4392,7 +4398,7 @@
         <v>100</v>
       </c>
       <c r="C122">
-        <v>0.52600000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -4406,7 +4412,7 @@
         <v>75</v>
       </c>
       <c r="C123">
-        <v>0.56799999999999995</v>
+        <v>0.48</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -4420,7 +4426,7 @@
         <v>50</v>
       </c>
       <c r="C124">
-        <v>0.58799999999999997</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -4434,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="C125">
-        <v>0.55400000000000005</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -4448,7 +4454,7 @@
         <v>75</v>
       </c>
       <c r="C126">
-        <v>0.54800000000000004</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -4462,7 +4468,7 @@
         <v>50</v>
       </c>
       <c r="C127">
-        <v>0.59299999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -4476,7 +4482,7 @@
         <v>100</v>
       </c>
       <c r="C128">
-        <v>0.54900000000000004</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
@@ -4490,7 +4496,7 @@
         <v>75</v>
       </c>
       <c r="C129">
-        <v>0.56200000000000006</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -4504,7 +4510,7 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>0.59</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D130" t="s">
         <v>80</v>
@@ -4518,7 +4524,7 @@
         <v>100</v>
       </c>
       <c r="C131">
-        <v>0.55500000000000005</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
@@ -4532,7 +4538,7 @@
         <v>75</v>
       </c>
       <c r="C132">
-        <v>0.53300000000000003</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D132" t="s">
         <v>80</v>
@@ -4546,7 +4552,7 @@
         <v>50</v>
       </c>
       <c r="C133">
-        <v>0.59899999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D133" t="s">
         <v>80</v>
@@ -4560,7 +4566,7 @@
         <v>100</v>
       </c>
       <c r="C134">
-        <v>0.55500000000000005</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D134" t="s">
         <v>80</v>
@@ -4574,7 +4580,7 @@
         <v>75</v>
       </c>
       <c r="C135">
-        <v>0.54800000000000004</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D135" t="s">
         <v>80</v>
@@ -4588,7 +4594,7 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>0.58799999999999997</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -4602,7 +4608,7 @@
         <v>100</v>
       </c>
       <c r="C137">
-        <v>0.54400000000000004</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D137" t="s">
         <v>80</v>
@@ -4616,7 +4622,7 @@
         <v>75</v>
       </c>
       <c r="C138">
-        <v>0.55100000000000005</v>
+        <v>0.497</v>
       </c>
       <c r="D138" t="s">
         <v>80</v>
@@ -4630,7 +4636,7 @@
         <v>50</v>
       </c>
       <c r="C139">
-        <v>0.61299999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D139" t="s">
         <v>80</v>
@@ -4644,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>0.53800000000000003</v>
+        <v>0.495</v>
       </c>
       <c r="D140" t="s">
         <v>80</v>
@@ -4658,7 +4664,7 @@
         <v>75</v>
       </c>
       <c r="C141">
-        <v>0.57399999999999995</v>
+        <v>0.505</v>
       </c>
       <c r="D141" t="s">
         <v>80</v>
@@ -4672,7 +4678,7 @@
         <v>50</v>
       </c>
       <c r="C142">
-        <v>0.60299999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D142" t="s">
         <v>80</v>
@@ -4686,7 +4692,7 @@
         <v>100</v>
       </c>
       <c r="C143">
-        <v>0.52700000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D143" t="s">
         <v>80</v>
@@ -4700,7 +4706,7 @@
         <v>75</v>
       </c>
       <c r="C144">
-        <v>0.56699999999999995</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D144" t="s">
         <v>80</v>
@@ -4714,7 +4720,7 @@
         <v>50</v>
       </c>
       <c r="C145">
-        <v>0.6</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D145" t="s">
         <v>80</v>
@@ -4728,7 +4734,7 @@
         <v>100</v>
       </c>
       <c r="C146">
-        <v>0.52900000000000003</v>
+        <v>0.498</v>
       </c>
       <c r="D146" t="s">
         <v>80</v>
@@ -4742,7 +4748,7 @@
         <v>75</v>
       </c>
       <c r="C147">
-        <v>0.58399999999999996</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D147" t="s">
         <v>80</v>
@@ -4756,7 +4762,7 @@
         <v>50</v>
       </c>
       <c r="C148">
-        <v>0.61099999999999999</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D148" t="s">
         <v>80</v>
@@ -4770,7 +4776,7 @@
         <v>100</v>
       </c>
       <c r="C149">
-        <v>0.54200000000000004</v>
+        <v>0.498</v>
       </c>
       <c r="D149" t="s">
         <v>80</v>
@@ -4784,7 +4790,7 @@
         <v>75</v>
       </c>
       <c r="C150">
-        <v>0.56899999999999995</v>
+        <v>0.501</v>
       </c>
       <c r="D150" t="s">
         <v>80</v>
@@ -4798,7 +4804,7 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>0.6</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D151" t="s">
         <v>80</v>
@@ -4812,7 +4818,7 @@
         <v>100</v>
       </c>
       <c r="C152">
-        <v>0.56699999999999995</v>
+        <v>0.498</v>
       </c>
       <c r="D152" t="s">
         <v>80</v>
@@ -4826,7 +4832,7 @@
         <v>75</v>
       </c>
       <c r="C153">
-        <v>0.55700000000000005</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -4840,7 +4846,7 @@
         <v>50</v>
       </c>
       <c r="C154">
-        <v>0.63600000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D154" t="s">
         <v>80</v>
@@ -4854,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="C155">
-        <v>0.54700000000000004</v>
+        <v>0.499</v>
       </c>
       <c r="D155" t="s">
         <v>80</v>
@@ -4868,7 +4874,7 @@
         <v>75</v>
       </c>
       <c r="C156">
-        <v>0.55500000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D156" t="s">
         <v>80</v>
@@ -4882,7 +4888,7 @@
         <v>50</v>
       </c>
       <c r="C157">
-        <v>0.61</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D157" t="s">
         <v>80</v>
@@ -4896,7 +4902,7 @@
         <v>100</v>
       </c>
       <c r="C158">
-        <v>0.55000000000000004</v>
+        <v>0.502</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4910,7 +4916,7 @@
         <v>75</v>
       </c>
       <c r="C159">
-        <v>0.55800000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D159" t="s">
         <v>80</v>
@@ -4924,7 +4930,7 @@
         <v>50</v>
       </c>
       <c r="C160">
-        <v>0.629</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D160" t="s">
         <v>80</v>
@@ -4938,7 +4944,7 @@
         <v>100</v>
       </c>
       <c r="C161">
-        <v>0.57499999999999996</v>
+        <v>0.504</v>
       </c>
       <c r="D161" t="s">
         <v>80</v>
@@ -4952,7 +4958,7 @@
         <v>75</v>
       </c>
       <c r="C162">
-        <v>0.53600000000000003</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D162" t="s">
         <v>80</v>
@@ -4966,7 +4972,7 @@
         <v>50</v>
       </c>
       <c r="C163">
-        <v>0.627</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D163" t="s">
         <v>80</v>
@@ -4980,7 +4986,7 @@
         <v>100</v>
       </c>
       <c r="C164">
-        <v>0.56000000000000005</v>
+        <v>0.504</v>
       </c>
       <c r="D164" t="s">
         <v>80</v>
@@ -4994,7 +5000,7 @@
         <v>75</v>
       </c>
       <c r="C165">
-        <v>0.57299999999999995</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D165" t="s">
         <v>80</v>
@@ -5008,7 +5014,7 @@
         <v>50</v>
       </c>
       <c r="C166">
-        <v>0.61399999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D166" t="s">
         <v>80</v>
@@ -5022,7 +5028,7 @@
         <v>100</v>
       </c>
       <c r="C167">
-        <v>0.49299999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D167" t="s">
         <v>80</v>
@@ -5036,7 +5042,7 @@
         <v>75</v>
       </c>
       <c r="C168">
-        <v>0.47899999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="D168" t="s">
         <v>80</v>
@@ -5050,7 +5056,7 @@
         <v>50</v>
       </c>
       <c r="C169">
-        <v>0.54200000000000004</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D169" t="s">
         <v>80</v>
@@ -5064,7 +5070,7 @@
         <v>100</v>
       </c>
       <c r="C170">
-        <v>0.49099999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D170" t="s">
         <v>80</v>
@@ -5078,7 +5084,7 @@
         <v>75</v>
       </c>
       <c r="C171">
-        <v>0.47499999999999998</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D171" t="s">
         <v>80</v>
@@ -5092,7 +5098,7 @@
         <v>50</v>
       </c>
       <c r="C172">
-        <v>0.51800000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="D172" t="s">
         <v>80</v>
@@ -5106,7 +5112,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>0.47699999999999998</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D173" t="s">
         <v>80</v>
@@ -5120,7 +5126,7 @@
         <v>75</v>
       </c>
       <c r="C174">
-        <v>0.48199999999999998</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D174" t="s">
         <v>80</v>
@@ -5134,7 +5140,7 @@
         <v>50</v>
       </c>
       <c r="C175">
-        <v>0.57199999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -5148,7 +5154,7 @@
         <v>100</v>
       </c>
       <c r="C176">
-        <v>0.46800000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -5162,7 +5168,7 @@
         <v>75</v>
       </c>
       <c r="C177">
-        <v>0.497</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -5176,7 +5182,7 @@
         <v>50</v>
       </c>
       <c r="C178">
-        <v>0.52800000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -5190,7 +5196,7 @@
         <v>100</v>
       </c>
       <c r="C179">
-        <v>0.48799999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -5204,7 +5210,7 @@
         <v>75</v>
       </c>
       <c r="C180">
-        <v>0.48499999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -5218,7 +5224,7 @@
         <v>50</v>
       </c>
       <c r="C181">
-        <v>0.52400000000000002</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D181" t="s">
         <v>80</v>
@@ -5232,7 +5238,7 @@
         <v>100</v>
       </c>
       <c r="C182">
-        <v>0.53100000000000003</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D182" t="s">
         <v>80</v>
@@ -5246,7 +5252,7 @@
         <v>75</v>
       </c>
       <c r="C183">
-        <v>0.56899999999999995</v>
+        <v>0.498</v>
       </c>
       <c r="D183" t="s">
         <v>80</v>
@@ -5260,7 +5266,7 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>0.61799999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D184" t="s">
         <v>80</v>
@@ -5274,7 +5280,7 @@
         <v>100</v>
       </c>
       <c r="C185">
-        <v>0.53300000000000003</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D185" t="s">
         <v>80</v>
@@ -5288,7 +5294,7 @@
         <v>75</v>
       </c>
       <c r="C186">
-        <v>0.56000000000000005</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D186" t="s">
         <v>80</v>
@@ -5302,7 +5308,7 @@
         <v>50</v>
       </c>
       <c r="C187">
-        <v>0.60499999999999998</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D187" t="s">
         <v>80</v>
@@ -5316,7 +5322,7 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>0.53900000000000003</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D188" t="s">
         <v>80</v>
@@ -5330,7 +5336,7 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>0.54900000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="D189" t="s">
         <v>80</v>
@@ -5344,7 +5350,7 @@
         <v>50</v>
       </c>
       <c r="C190">
-        <v>0.61699999999999999</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D190" t="s">
         <v>80</v>
@@ -5358,7 +5364,7 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>0.55300000000000005</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -5372,7 +5378,7 @@
         <v>75</v>
       </c>
       <c r="C192">
-        <v>0.54400000000000004</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D192" t="s">
         <v>80</v>
@@ -5386,7 +5392,7 @@
         <v>50</v>
       </c>
       <c r="C193">
-        <v>0.59499999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D193" t="s">
         <v>80</v>
@@ -5400,7 +5406,7 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>0.54400000000000004</v>
+        <v>0.495</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -5414,7 +5420,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>0.56100000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="D195" t="s">
         <v>80</v>
@@ -5428,7 +5434,7 @@
         <v>50</v>
       </c>
       <c r="C196">
-        <v>0.623</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D196" t="s">
         <v>80</v>
@@ -5442,7 +5448,7 @@
         <v>100</v>
       </c>
       <c r="C197">
-        <v>0.44500000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="D197" t="s">
         <v>80</v>
@@ -5456,7 +5462,7 @@
         <v>75</v>
       </c>
       <c r="C198">
-        <v>0.46100000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
@@ -5470,7 +5476,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <v>0.46700000000000003</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
@@ -5484,7 +5490,7 @@
         <v>100</v>
       </c>
       <c r="C200">
-        <v>0.434</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
@@ -5498,7 +5504,7 @@
         <v>75</v>
       </c>
       <c r="C201">
-        <v>0.45500000000000002</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
@@ -5512,7 +5518,7 @@
         <v>50</v>
       </c>
       <c r="C202">
-        <v>0.48699999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
@@ -5526,7 +5532,7 @@
         <v>100</v>
       </c>
       <c r="C203">
-        <v>0.45300000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="D203" t="s">
         <v>80</v>
@@ -5540,7 +5546,7 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>0.47099999999999997</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
@@ -5554,7 +5560,7 @@
         <v>50</v>
       </c>
       <c r="C205">
-        <v>0.49099999999999999</v>
+        <v>0.443</v>
       </c>
       <c r="D205" t="s">
         <v>80</v>
@@ -5568,7 +5574,7 @@
         <v>100</v>
       </c>
       <c r="C206">
-        <v>0.48199999999999998</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
@@ -5582,7 +5588,7 @@
         <v>75</v>
       </c>
       <c r="C207">
-        <v>0.47899999999999998</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D207" t="s">
         <v>80</v>
@@ -5596,7 +5602,7 @@
         <v>50</v>
       </c>
       <c r="C208">
-        <v>0.47</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D208" t="s">
         <v>80</v>
@@ -5610,7 +5616,7 @@
         <v>100</v>
       </c>
       <c r="C209">
-        <v>0.46500000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="D209" t="s">
         <v>80</v>
@@ -5624,7 +5630,7 @@
         <v>75</v>
       </c>
       <c r="C210">
-        <v>0.45300000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="D210" t="s">
         <v>80</v>
@@ -5638,7 +5644,7 @@
         <v>50</v>
       </c>
       <c r="C211">
-        <v>0.49199999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="D211" t="s">
         <v>80</v>
@@ -5652,7 +5658,7 @@
         <v>100</v>
       </c>
       <c r="C212">
-        <v>0.39100000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D212" t="s">
         <v>80</v>
@@ -5666,7 +5672,7 @@
         <v>75</v>
       </c>
       <c r="C213">
-        <v>0.41099999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
@@ -5680,7 +5686,7 @@
         <v>50</v>
       </c>
       <c r="C214">
-        <v>0.443</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -5694,7 +5700,7 @@
         <v>100</v>
       </c>
       <c r="C215">
-        <v>0.41099999999999998</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D215" t="s">
         <v>80</v>
@@ -5708,7 +5714,7 @@
         <v>75</v>
       </c>
       <c r="C216">
-        <v>0.39100000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D216" t="s">
         <v>80</v>
@@ -5722,7 +5728,7 @@
         <v>50</v>
       </c>
       <c r="C217">
-        <v>0.44700000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D217" t="s">
         <v>80</v>
@@ -5736,7 +5742,7 @@
         <v>100</v>
       </c>
       <c r="C218">
-        <v>0.40500000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D218" t="s">
         <v>80</v>
@@ -5750,7 +5756,7 @@
         <v>75</v>
       </c>
       <c r="C219">
-        <v>0.39300000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D219" t="s">
         <v>80</v>
@@ -5764,7 +5770,7 @@
         <v>50</v>
       </c>
       <c r="C220">
-        <v>0.42699999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D220" t="s">
         <v>80</v>
@@ -5778,7 +5784,7 @@
         <v>100</v>
       </c>
       <c r="C221">
-        <v>0.38800000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D221" t="s">
         <v>80</v>
@@ -5792,7 +5798,7 @@
         <v>75</v>
       </c>
       <c r="C222">
-        <v>0.40799999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D222" t="s">
         <v>80</v>
@@ -5806,7 +5812,7 @@
         <v>50</v>
       </c>
       <c r="C223">
-        <v>0.41</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="D223" t="s">
         <v>80</v>
@@ -5820,7 +5826,7 @@
         <v>100</v>
       </c>
       <c r="C224">
-        <v>0.39200000000000002</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D224" t="s">
         <v>80</v>
@@ -5834,7 +5840,7 @@
         <v>75</v>
       </c>
       <c r="C225">
-        <v>0.39900000000000002</v>
+        <v>0.377</v>
       </c>
       <c r="D225" t="s">
         <v>80</v>
@@ -5848,7 +5854,7 @@
         <v>50</v>
       </c>
       <c r="C226">
-        <v>0.44600000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D226" t="s">
         <v>80</v>
@@ -5862,7 +5868,7 @@
         <v>100</v>
       </c>
       <c r="C227">
-        <v>0.374</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D227" t="s">
         <v>80</v>
@@ -5876,7 +5882,7 @@
         <v>75</v>
       </c>
       <c r="C228">
-        <v>0.36399999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D228" t="s">
         <v>80</v>
@@ -5890,7 +5896,7 @@
         <v>50</v>
       </c>
       <c r="C229">
-        <v>0.42499999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D229" t="s">
         <v>80</v>
@@ -5904,7 +5910,7 @@
         <v>100</v>
       </c>
       <c r="C230">
-        <v>0.4</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D230" t="s">
         <v>80</v>
@@ -5918,7 +5924,7 @@
         <v>75</v>
       </c>
       <c r="C231">
-        <v>0.35599999999999998</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D231" t="s">
         <v>80</v>
@@ -5932,7 +5938,7 @@
         <v>50</v>
       </c>
       <c r="C232">
-        <v>0.42399999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D232" t="s">
         <v>80</v>
@@ -5946,7 +5952,7 @@
         <v>100</v>
       </c>
       <c r="C233">
-        <v>0.38100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D233" t="s">
         <v>80</v>
@@ -5960,7 +5966,7 @@
         <v>75</v>
       </c>
       <c r="C234">
-        <v>0.36299999999999999</v>
+        <v>0.312</v>
       </c>
       <c r="D234" t="s">
         <v>80</v>
@@ -5974,7 +5980,7 @@
         <v>50</v>
       </c>
       <c r="C235">
-        <v>0.436</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D235" t="s">
         <v>80</v>
@@ -5988,7 +5994,7 @@
         <v>100</v>
       </c>
       <c r="C236">
-        <v>0.377</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D236" t="s">
         <v>80</v>
@@ -6002,7 +6008,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>0.36599999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D237" t="s">
         <v>80</v>
@@ -6016,7 +6022,7 @@
         <v>50</v>
       </c>
       <c r="C238">
-        <v>0.42399999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D238" t="s">
         <v>80</v>
@@ -6030,7 +6036,7 @@
         <v>100</v>
       </c>
       <c r="C239">
-        <v>0.375</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D239" t="s">
         <v>80</v>
@@ -6044,7 +6050,7 @@
         <v>75</v>
       </c>
       <c r="C240">
-        <v>0.36</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D240" t="s">
         <v>80</v>
@@ -6058,7 +6064,7 @@
         <v>50</v>
       </c>
       <c r="C241">
-        <v>0.42299999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D241" t="s">
         <v>80</v>
@@ -6072,7 +6078,7 @@
         <v>100</v>
       </c>
       <c r="C242">
-        <v>0.32</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D242" t="s">
         <v>80</v>
@@ -6086,7 +6092,7 @@
         <v>75</v>
       </c>
       <c r="C243">
-        <v>0.34300000000000003</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D243" t="s">
         <v>80</v>
@@ -6100,7 +6106,7 @@
         <v>50</v>
       </c>
       <c r="C244">
-        <v>0.375</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D244" t="s">
         <v>80</v>
@@ -6114,7 +6120,7 @@
         <v>100</v>
       </c>
       <c r="C245">
-        <v>0.34599999999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D245" t="s">
         <v>80</v>
@@ -6128,7 +6134,7 @@
         <v>75</v>
       </c>
       <c r="C246">
-        <v>0.35799999999999998</v>
+        <v>0.307</v>
       </c>
       <c r="D246" t="s">
         <v>80</v>
@@ -6142,7 +6148,7 @@
         <v>50</v>
       </c>
       <c r="C247">
-        <v>0.36099999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="D247" t="s">
         <v>80</v>
@@ -6156,7 +6162,7 @@
         <v>100</v>
       </c>
       <c r="C248">
-        <v>0.35299999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D248" t="s">
         <v>80</v>
@@ -6170,7 +6176,7 @@
         <v>75</v>
       </c>
       <c r="C249">
-        <v>0.35699999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D249" t="s">
         <v>80</v>
@@ -6184,7 +6190,7 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.34699999999999998</v>
+        <v>0.311</v>
       </c>
       <c r="D250" t="s">
         <v>80</v>
@@ -6198,7 +6204,7 @@
         <v>100</v>
       </c>
       <c r="C251">
-        <v>0.36299999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D251" t="s">
         <v>80</v>
@@ -6212,7 +6218,7 @@
         <v>75</v>
       </c>
       <c r="C252">
-        <v>0.33600000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D252" t="s">
         <v>80</v>
@@ -6226,7 +6232,7 @@
         <v>50</v>
       </c>
       <c r="C253">
-        <v>0.34899999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D253" t="s">
         <v>80</v>
@@ -6240,7 +6246,7 @@
         <v>100</v>
       </c>
       <c r="C254">
-        <v>0.34200000000000003</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D254" t="s">
         <v>80</v>
@@ -6254,7 +6260,7 @@
         <v>75</v>
       </c>
       <c r="C255">
-        <v>0.32900000000000001</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D255" t="s">
         <v>80</v>
@@ -6268,7 +6274,7 @@
         <v>50</v>
       </c>
       <c r="C256">
-        <v>0.36099999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="D256" t="s">
         <v>80</v>
@@ -6282,7 +6288,7 @@
         <v>100</v>
       </c>
       <c r="C257">
-        <v>0.38700000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D257" t="s">
         <v>80</v>
@@ -6296,7 +6302,7 @@
         <v>75</v>
       </c>
       <c r="C258">
-        <v>0.38</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="D258" t="s">
         <v>80</v>
@@ -6310,7 +6316,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.40300000000000002</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D259" t="s">
         <v>80</v>
@@ -6324,7 +6330,7 @@
         <v>100</v>
       </c>
       <c r="C260">
-        <v>0.39</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D260" t="s">
         <v>80</v>
@@ -6338,7 +6344,7 @@
         <v>75</v>
       </c>
       <c r="C261">
-        <v>0.36899999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="D261" t="s">
         <v>80</v>
@@ -6352,7 +6358,7 @@
         <v>50</v>
       </c>
       <c r="C262">
-        <v>0.41299999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D262" t="s">
         <v>80</v>
@@ -6366,7 +6372,7 @@
         <v>100</v>
       </c>
       <c r="C263">
-        <v>0.38400000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D263" t="s">
         <v>80</v>
@@ -6380,7 +6386,7 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>0.39300000000000002</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D264" t="s">
         <v>80</v>
@@ -6394,7 +6400,7 @@
         <v>50</v>
       </c>
       <c r="C265">
-        <v>0.40500000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="D265" t="s">
         <v>80</v>
@@ -6408,7 +6414,7 @@
         <v>100</v>
       </c>
       <c r="C266">
-        <v>0.38300000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D266" t="s">
         <v>80</v>
@@ -6422,7 +6428,7 @@
         <v>75</v>
       </c>
       <c r="C267">
-        <v>0.39900000000000002</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D267" t="s">
         <v>80</v>
@@ -6436,7 +6442,7 @@
         <v>50</v>
       </c>
       <c r="C268">
-        <v>0.38300000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D268" t="s">
         <v>80</v>
@@ -6450,7 +6456,7 @@
         <v>100</v>
       </c>
       <c r="C269">
-        <v>0.38900000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D269" t="s">
         <v>80</v>
@@ -6464,7 +6470,7 @@
         <v>75</v>
       </c>
       <c r="C270">
-        <v>0.36099999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="D270" t="s">
         <v>80</v>
@@ -6478,7 +6484,7 @@
         <v>50</v>
       </c>
       <c r="C271">
-        <v>0.4</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D271" t="s">
         <v>80</v>
@@ -6492,7 +6498,7 @@
         <v>100</v>
       </c>
       <c r="C272">
-        <v>0.45300000000000001</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D272" t="s">
         <v>80</v>
@@ -6506,7 +6512,7 @@
         <v>75</v>
       </c>
       <c r="C273">
-        <v>0.44500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="D273" t="s">
         <v>80</v>
@@ -6520,7 +6526,7 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>0.46200000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D274" t="s">
         <v>80</v>
@@ -6534,7 +6540,7 @@
         <v>100</v>
       </c>
       <c r="C275">
-        <v>0.44700000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D275" t="s">
         <v>80</v>
@@ -6548,7 +6554,7 @@
         <v>75</v>
       </c>
       <c r="C276">
-        <v>0.46600000000000003</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D276" t="s">
         <v>80</v>
@@ -6562,7 +6568,7 @@
         <v>50</v>
       </c>
       <c r="C277">
-        <v>0.46</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D277" t="s">
         <v>80</v>
@@ -6576,7 +6582,7 @@
         <v>100</v>
       </c>
       <c r="C278">
-        <v>0.45100000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D278" t="s">
         <v>80</v>
@@ -6590,7 +6596,7 @@
         <v>75</v>
       </c>
       <c r="C279">
-        <v>0.45600000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D279" t="s">
         <v>80</v>
@@ -6604,7 +6610,7 @@
         <v>50</v>
       </c>
       <c r="C280">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="D280" t="s">
         <v>80</v>
@@ -6618,7 +6624,7 @@
         <v>100</v>
       </c>
       <c r="C281">
-        <v>0.45900000000000002</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D281" t="s">
         <v>80</v>
@@ -6632,7 +6638,7 @@
         <v>75</v>
       </c>
       <c r="C282">
-        <v>0.46400000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D282" t="s">
         <v>80</v>
@@ -6646,7 +6652,7 @@
         <v>50</v>
       </c>
       <c r="C283">
-        <v>0.45100000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D283" t="s">
         <v>80</v>
@@ -6660,7 +6666,7 @@
         <v>100</v>
       </c>
       <c r="C284">
-        <v>0.44600000000000001</v>
+        <v>0.377</v>
       </c>
       <c r="D284" t="s">
         <v>80</v>
@@ -6674,7 +6680,7 @@
         <v>75</v>
       </c>
       <c r="C285">
-        <v>0.47199999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D285" t="s">
         <v>80</v>
@@ -6688,7 +6694,7 @@
         <v>50</v>
       </c>
       <c r="C286">
-        <v>0.45800000000000002</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D286" t="s">
         <v>80</v>
@@ -6702,7 +6708,7 @@
         <v>100</v>
       </c>
       <c r="C287">
-        <v>0.55400000000000005</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D287" t="s">
         <v>80</v>
@@ -6716,7 +6722,7 @@
         <v>75</v>
       </c>
       <c r="C288">
-        <v>0.57299999999999995</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D288" t="s">
         <v>80</v>
@@ -6730,7 +6736,7 @@
         <v>50</v>
       </c>
       <c r="C289">
-        <v>0.58499999999999996</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D289" t="s">
         <v>80</v>
@@ -6744,7 +6750,7 @@
         <v>100</v>
       </c>
       <c r="C290">
-        <v>0.55800000000000005</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D290" t="s">
         <v>80</v>
@@ -6758,7 +6764,7 @@
         <v>75</v>
       </c>
       <c r="C291">
-        <v>0.55900000000000005</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D291" t="s">
         <v>80</v>
@@ -6772,7 +6778,7 @@
         <v>50</v>
       </c>
       <c r="C292">
-        <v>0.58099999999999996</v>
+        <v>0.499</v>
       </c>
       <c r="D292" t="s">
         <v>80</v>
@@ -6786,7 +6792,7 @@
         <v>100</v>
       </c>
       <c r="C293">
-        <v>0.57099999999999995</v>
+        <v>0.495</v>
       </c>
       <c r="D293" t="s">
         <v>80</v>
@@ -6800,7 +6806,7 @@
         <v>75</v>
       </c>
       <c r="C294">
-        <v>0.56799999999999995</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D294" t="s">
         <v>80</v>
@@ -6814,7 +6820,7 @@
         <v>50</v>
       </c>
       <c r="C295">
-        <v>0.57399999999999995</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D295" t="s">
         <v>80</v>
@@ -6828,7 +6834,7 @@
         <v>100</v>
       </c>
       <c r="C296">
-        <v>0.56299999999999994</v>
+        <v>0.504</v>
       </c>
       <c r="D296" t="s">
         <v>80</v>
@@ -6842,7 +6848,7 @@
         <v>75</v>
       </c>
       <c r="C297">
-        <v>0.55800000000000005</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D297" t="s">
         <v>80</v>
@@ -6856,7 +6862,7 @@
         <v>50</v>
       </c>
       <c r="C298">
-        <v>0.57599999999999996</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D298" t="s">
         <v>80</v>
@@ -6870,7 +6876,7 @@
         <v>100</v>
       </c>
       <c r="C299">
-        <v>0.56100000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D299" t="s">
         <v>80</v>
@@ -6884,7 +6890,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>0.56200000000000006</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D300" t="s">
         <v>80</v>
@@ -6898,7 +6904,7 @@
         <v>50</v>
       </c>
       <c r="C301">
-        <v>0.58399999999999996</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D301" t="s">
         <v>80</v>
@@ -6912,7 +6918,7 @@
         <v>100</v>
       </c>
       <c r="C302">
-        <v>0.57299999999999995</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D302" t="s">
         <v>80</v>
@@ -6926,7 +6932,7 @@
         <v>75</v>
       </c>
       <c r="C303">
-        <v>0.59699999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D303" t="s">
         <v>80</v>
@@ -6940,7 +6946,7 @@
         <v>50</v>
       </c>
       <c r="C304">
-        <v>0.57699999999999996</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D304" t="s">
         <v>80</v>
@@ -6954,7 +6960,7 @@
         <v>100</v>
       </c>
       <c r="C305">
-        <v>0.6</v>
+        <v>0.502</v>
       </c>
       <c r="D305" t="s">
         <v>80</v>
@@ -6968,7 +6974,7 @@
         <v>75</v>
       </c>
       <c r="C306">
-        <v>0.57999999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D306" t="s">
         <v>80</v>
@@ -6982,7 +6988,7 @@
         <v>50</v>
       </c>
       <c r="C307">
-        <v>0.59899999999999998</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D307" t="s">
         <v>80</v>
@@ -6996,7 +7002,7 @@
         <v>100</v>
       </c>
       <c r="C308">
-        <v>0.59399999999999997</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D308" t="s">
         <v>80</v>
@@ -7010,7 +7016,7 @@
         <v>75</v>
       </c>
       <c r="C309">
-        <v>0.58799999999999997</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D309" t="s">
         <v>80</v>
@@ -7024,7 +7030,7 @@
         <v>50</v>
       </c>
       <c r="C310">
-        <v>0.58599999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D310" t="s">
         <v>80</v>
@@ -7038,7 +7044,7 @@
         <v>100</v>
       </c>
       <c r="C311">
-        <v>0.58699999999999997</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D311" t="s">
         <v>80</v>
@@ -7052,7 +7058,7 @@
         <v>75</v>
       </c>
       <c r="C312">
-        <v>0.57199999999999995</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D312" t="s">
         <v>80</v>
@@ -7066,7 +7072,7 @@
         <v>50</v>
       </c>
       <c r="C313">
-        <v>0.58299999999999996</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D313" t="s">
         <v>80</v>
@@ -7080,7 +7086,7 @@
         <v>100</v>
       </c>
       <c r="C314">
-        <v>0.57999999999999996</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D314" t="s">
         <v>80</v>
@@ -7094,7 +7100,7 @@
         <v>75</v>
       </c>
       <c r="C315">
-        <v>0.58099999999999996</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D315" t="s">
         <v>80</v>
@@ -7108,7 +7114,7 @@
         <v>50</v>
       </c>
       <c r="C316">
-        <v>0.58599999999999997</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D316" t="s">
         <v>80</v>
@@ -7122,7 +7128,7 @@
         <v>100</v>
       </c>
       <c r="C317">
-        <v>0.56899999999999995</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D317" t="s">
         <v>80</v>
@@ -7136,7 +7142,7 @@
         <v>75</v>
       </c>
       <c r="C318">
-        <v>0.58499999999999996</v>
+        <v>0.505</v>
       </c>
       <c r="D318" t="s">
         <v>80</v>
@@ -7150,7 +7156,7 @@
         <v>50</v>
       </c>
       <c r="C319">
-        <v>0.58699999999999997</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D319" t="s">
         <v>80</v>
@@ -7164,7 +7170,7 @@
         <v>100</v>
       </c>
       <c r="C320">
-        <v>0.57499999999999996</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D320" t="s">
         <v>80</v>
@@ -7178,7 +7184,7 @@
         <v>75</v>
       </c>
       <c r="C321">
-        <v>0.54800000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="D321" t="s">
         <v>80</v>
@@ -7192,7 +7198,7 @@
         <v>50</v>
       </c>
       <c r="C322">
-        <v>0.59599999999999997</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D322" t="s">
         <v>80</v>
@@ -7206,7 +7212,7 @@
         <v>100</v>
       </c>
       <c r="C323">
-        <v>0.56200000000000006</v>
+        <v>0.497</v>
       </c>
       <c r="D323" t="s">
         <v>80</v>
@@ -7220,7 +7226,7 @@
         <v>75</v>
       </c>
       <c r="C324">
-        <v>0.56000000000000005</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D324" t="s">
         <v>80</v>
@@ -7234,7 +7240,7 @@
         <v>50</v>
       </c>
       <c r="C325">
-        <v>0.57199999999999995</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="D325" t="s">
         <v>80</v>
@@ -7248,7 +7254,7 @@
         <v>100</v>
       </c>
       <c r="C326">
-        <v>0.57099999999999995</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D326" t="s">
         <v>80</v>
@@ -7262,7 +7268,7 @@
         <v>75</v>
       </c>
       <c r="C327">
-        <v>0.56699999999999995</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D327" t="s">
         <v>80</v>
@@ -7276,7 +7282,7 @@
         <v>50</v>
       </c>
       <c r="C328">
-        <v>0.56899999999999995</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D328" t="s">
         <v>80</v>
@@ -7290,7 +7296,7 @@
         <v>100</v>
       </c>
       <c r="C329">
-        <v>0.56599999999999995</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D329" t="s">
         <v>80</v>
@@ -7304,7 +7310,7 @@
         <v>75</v>
       </c>
       <c r="C330">
-        <v>0.56200000000000006</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D330" t="s">
         <v>80</v>
@@ -7318,7 +7324,7 @@
         <v>50</v>
       </c>
       <c r="C331">
-        <v>0.55400000000000005</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D331" t="s">
         <v>80</v>
